--- a/Unverified multiformat sources/Imports_1761_Nantes Hasna à faire corriger.xlsx
+++ b/Unverified multiformat sources/Imports_1761_Nantes Hasna à faire corriger.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10523"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guillaumedaudin/Documents/Recherche/Commerce International Français XVIIIe.xls/Balance du commerce/Retranscriptions_Commerce_France/toflit18_data_GIT/Unverified multiformat sources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{502FC7F1-4205-6D4D-8770-A43207D4A1BC}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61704FE2-3DD8-A245-A83F-C40206887B94}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="8200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="29360" windowHeight="27800" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Entrées" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3185" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3185" uniqueCount="310">
   <si>
     <t>numrodeligne</t>
   </si>
@@ -408,9 +408,6 @@
     <t>arceniot</t>
   </si>
   <si>
-    <t>arcelles de baleine</t>
-  </si>
-  <si>
     <t>argent vif</t>
   </si>
   <si>
@@ -952,6 +949,12 @@
   </si>
   <si>
     <t>probleme</t>
+  </si>
+  <si>
+    <t>arrelles de baleine</t>
+  </si>
+  <si>
+    <t>À la place du prix «Pour curiosité»</t>
   </si>
 </sst>
 </file>
@@ -963,7 +966,7 @@
     <numFmt numFmtId="165" formatCode="#,##0.0000000"/>
     <numFmt numFmtId="166" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -997,6 +1000,11 @@
       <name val="Trebuchet MS"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Liberation Sans"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1052,7 +1060,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1166,6 +1174,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1614,13 +1623,13 @@
   </sheetPr>
   <dimension ref="A1:AMJ317"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="54" zoomScaleNormal="54" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="N1" sqref="N1"/>
-      <selection pane="bottomLeft" activeCell="W1" sqref="W1"/>
+      <selection pane="bottomLeft" activeCell="Y96" sqref="Y96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.5" style="1"/>
     <col min="2" max="2" width="15.6640625" style="1" customWidth="1"/>
@@ -1649,7 +1658,7 @@
     <col min="1022" max="1025" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" s="15" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1024" s="15" customFormat="1" ht="67.5" customHeight="1">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -1717,7 +1726,7 @@
         <v>21</v>
       </c>
       <c r="W1" s="19" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="X1" s="20" t="s">
         <v>22</v>
@@ -1729,7 +1738,7 @@
       <c r="AMI1" s="21"/>
       <c r="AMJ1" s="21"/>
     </row>
-    <row r="2" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1024" s="22" customFormat="1">
       <c r="A2" s="22">
         <v>1</v>
       </c>
@@ -1797,7 +1806,7 @@
       <c r="AMI2"/>
       <c r="AMJ2"/>
     </row>
-    <row r="3" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1024" s="22" customFormat="1">
       <c r="A3" s="22">
         <v>2</v>
       </c>
@@ -1865,7 +1874,7 @@
       <c r="AMI3"/>
       <c r="AMJ3"/>
     </row>
-    <row r="4" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1024" s="22" customFormat="1">
       <c r="A4" s="22">
         <v>3</v>
       </c>
@@ -1933,7 +1942,7 @@
       <c r="AMI4"/>
       <c r="AMJ4"/>
     </row>
-    <row r="5" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1024" s="22" customFormat="1">
       <c r="A5" s="22">
         <v>4</v>
       </c>
@@ -2001,7 +2010,7 @@
       <c r="AMI5"/>
       <c r="AMJ5"/>
     </row>
-    <row r="6" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1024" s="22" customFormat="1">
       <c r="A6" s="22">
         <v>5</v>
       </c>
@@ -2069,7 +2078,7 @@
       <c r="AMI6"/>
       <c r="AMJ6"/>
     </row>
-    <row r="7" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1024" s="22" customFormat="1">
       <c r="A7" s="22">
         <v>6</v>
       </c>
@@ -2137,7 +2146,7 @@
       <c r="AMI7"/>
       <c r="AMJ7"/>
     </row>
-    <row r="8" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1024" s="22" customFormat="1">
       <c r="A8" s="22">
         <v>7</v>
       </c>
@@ -2205,7 +2214,7 @@
       <c r="AMI8"/>
       <c r="AMJ8"/>
     </row>
-    <row r="9" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1024" s="22" customFormat="1">
       <c r="A9" s="22">
         <v>8</v>
       </c>
@@ -2273,7 +2282,7 @@
       <c r="AMI9"/>
       <c r="AMJ9"/>
     </row>
-    <row r="10" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1024" s="22" customFormat="1">
       <c r="A10" s="22">
         <v>9</v>
       </c>
@@ -2341,7 +2350,7 @@
       <c r="AMI10"/>
       <c r="AMJ10"/>
     </row>
-    <row r="11" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1024" s="22" customFormat="1">
       <c r="A11" s="22">
         <v>10</v>
       </c>
@@ -2410,7 +2419,7 @@
       <c r="AMI11"/>
       <c r="AMJ11"/>
     </row>
-    <row r="12" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1024" s="22" customFormat="1">
       <c r="A12" s="22">
         <v>11</v>
       </c>
@@ -2478,7 +2487,7 @@
       <c r="AMI12"/>
       <c r="AMJ12"/>
     </row>
-    <row r="13" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1024" s="22" customFormat="1">
       <c r="A13" s="22">
         <v>12</v>
       </c>
@@ -2546,7 +2555,7 @@
       <c r="AMI13"/>
       <c r="AMJ13"/>
     </row>
-    <row r="14" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1024" s="22" customFormat="1">
       <c r="A14" s="22">
         <v>13</v>
       </c>
@@ -2614,7 +2623,7 @@
       <c r="AMI14"/>
       <c r="AMJ14"/>
     </row>
-    <row r="15" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1024" s="22" customFormat="1">
       <c r="A15" s="22">
         <v>14</v>
       </c>
@@ -2682,7 +2691,7 @@
       <c r="AMI15"/>
       <c r="AMJ15"/>
     </row>
-    <row r="16" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1024" s="22" customFormat="1">
       <c r="A16" s="22">
         <v>15</v>
       </c>
@@ -2750,7 +2759,7 @@
       <c r="AMI16"/>
       <c r="AMJ16"/>
     </row>
-    <row r="17" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1024" s="22" customFormat="1">
       <c r="A17" s="22">
         <v>16</v>
       </c>
@@ -2818,7 +2827,7 @@
       <c r="AMI17"/>
       <c r="AMJ17"/>
     </row>
-    <row r="18" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1024" s="22" customFormat="1">
       <c r="A18" s="22">
         <v>17</v>
       </c>
@@ -2886,7 +2895,7 @@
       <c r="AMI18"/>
       <c r="AMJ18"/>
     </row>
-    <row r="19" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1024" s="22" customFormat="1">
       <c r="A19" s="22">
         <v>18</v>
       </c>
@@ -2954,7 +2963,7 @@
       <c r="AMI19"/>
       <c r="AMJ19"/>
     </row>
-    <row r="20" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1024" s="22" customFormat="1">
       <c r="A20" s="22">
         <v>19</v>
       </c>
@@ -3022,7 +3031,7 @@
       <c r="AMI20"/>
       <c r="AMJ20"/>
     </row>
-    <row r="21" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1024" s="22" customFormat="1">
       <c r="A21" s="22">
         <v>20</v>
       </c>
@@ -3090,7 +3099,7 @@
       <c r="AMI21"/>
       <c r="AMJ21"/>
     </row>
-    <row r="22" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1024" s="22" customFormat="1">
       <c r="A22" s="22">
         <v>21</v>
       </c>
@@ -3158,7 +3167,7 @@
       <c r="AMI22"/>
       <c r="AMJ22"/>
     </row>
-    <row r="23" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1024" s="22" customFormat="1">
       <c r="A23" s="22">
         <v>22</v>
       </c>
@@ -3226,7 +3235,7 @@
       <c r="AMI23"/>
       <c r="AMJ23"/>
     </row>
-    <row r="24" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1024" s="22" customFormat="1">
       <c r="A24" s="22">
         <v>23</v>
       </c>
@@ -3294,7 +3303,7 @@
       <c r="AMI24"/>
       <c r="AMJ24"/>
     </row>
-    <row r="25" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1024" s="22" customFormat="1">
       <c r="A25" s="22">
         <v>24</v>
       </c>
@@ -3362,7 +3371,7 @@
       <c r="AMI25"/>
       <c r="AMJ25"/>
     </row>
-    <row r="26" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1024" s="22" customFormat="1">
       <c r="A26" s="22">
         <v>25</v>
       </c>
@@ -3430,7 +3439,7 @@
       <c r="AMI26"/>
       <c r="AMJ26"/>
     </row>
-    <row r="27" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1024" s="22" customFormat="1">
       <c r="A27" s="22">
         <v>26</v>
       </c>
@@ -3498,7 +3507,7 @@
       <c r="AMI27"/>
       <c r="AMJ27"/>
     </row>
-    <row r="28" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1024" s="22" customFormat="1">
       <c r="A28" s="22">
         <v>27</v>
       </c>
@@ -3566,7 +3575,7 @@
       <c r="AMI28"/>
       <c r="AMJ28"/>
     </row>
-    <row r="29" spans="1:1024" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1024" s="22" customFormat="1" ht="14.25" customHeight="1">
       <c r="A29" s="22">
         <v>28</v>
       </c>
@@ -3634,7 +3643,7 @@
       <c r="AMI29"/>
       <c r="AMJ29"/>
     </row>
-    <row r="30" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1024" s="22" customFormat="1">
       <c r="A30" s="22">
         <v>29</v>
       </c>
@@ -3702,7 +3711,7 @@
       <c r="AMI30"/>
       <c r="AMJ30"/>
     </row>
-    <row r="31" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1024" s="22" customFormat="1">
       <c r="A31" s="22">
         <v>30</v>
       </c>
@@ -3770,7 +3779,7 @@
       <c r="AMI31"/>
       <c r="AMJ31"/>
     </row>
-    <row r="32" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1024" s="22" customFormat="1">
       <c r="A32" s="22">
         <v>31</v>
       </c>
@@ -3838,7 +3847,7 @@
       <c r="AMI32"/>
       <c r="AMJ32"/>
     </row>
-    <row r="33" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1024" s="22" customFormat="1">
       <c r="A33" s="22">
         <v>32</v>
       </c>
@@ -3906,7 +3915,7 @@
       <c r="AMI33"/>
       <c r="AMJ33"/>
     </row>
-    <row r="34" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1024" s="22" customFormat="1">
       <c r="A34" s="22">
         <v>33</v>
       </c>
@@ -3974,7 +3983,7 @@
       <c r="AMI34"/>
       <c r="AMJ34"/>
     </row>
-    <row r="35" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1024" s="22" customFormat="1">
       <c r="A35" s="22">
         <v>34</v>
       </c>
@@ -4042,7 +4051,7 @@
       <c r="AMI35"/>
       <c r="AMJ35"/>
     </row>
-    <row r="36" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1024" s="22" customFormat="1">
       <c r="A36" s="22">
         <v>35</v>
       </c>
@@ -4110,7 +4119,7 @@
       <c r="AMI36"/>
       <c r="AMJ36"/>
     </row>
-    <row r="37" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1024" s="22" customFormat="1">
       <c r="A37" s="22">
         <v>36</v>
       </c>
@@ -4178,7 +4187,7 @@
       <c r="AMI37"/>
       <c r="AMJ37"/>
     </row>
-    <row r="38" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1024" s="22" customFormat="1">
       <c r="A38" s="22">
         <v>37</v>
       </c>
@@ -4246,7 +4255,7 @@
       <c r="AMI38"/>
       <c r="AMJ38"/>
     </row>
-    <row r="39" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1024" s="22" customFormat="1">
       <c r="A39" s="22">
         <v>38</v>
       </c>
@@ -4314,7 +4323,7 @@
       <c r="AMI39"/>
       <c r="AMJ39"/>
     </row>
-    <row r="40" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1024" s="22" customFormat="1">
       <c r="A40" s="22">
         <v>39</v>
       </c>
@@ -4382,7 +4391,7 @@
       <c r="AMI40"/>
       <c r="AMJ40"/>
     </row>
-    <row r="41" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1024" s="22" customFormat="1">
       <c r="A41" s="22">
         <v>40</v>
       </c>
@@ -4450,7 +4459,7 @@
       <c r="AMI41"/>
       <c r="AMJ41"/>
     </row>
-    <row r="42" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1024" s="22" customFormat="1">
       <c r="A42" s="22">
         <v>41</v>
       </c>
@@ -4518,7 +4527,7 @@
       <c r="AMI42"/>
       <c r="AMJ42"/>
     </row>
-    <row r="43" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1024" s="22" customFormat="1">
       <c r="A43" s="22">
         <v>42</v>
       </c>
@@ -4586,7 +4595,7 @@
       <c r="AMI43"/>
       <c r="AMJ43"/>
     </row>
-    <row r="44" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1024" s="22" customFormat="1">
       <c r="A44" s="22">
         <v>43</v>
       </c>
@@ -4654,7 +4663,7 @@
       <c r="AMI44"/>
       <c r="AMJ44"/>
     </row>
-    <row r="45" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1024" s="22" customFormat="1">
       <c r="A45" s="22">
         <v>44</v>
       </c>
@@ -4722,7 +4731,7 @@
       <c r="AMI45"/>
       <c r="AMJ45"/>
     </row>
-    <row r="46" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1024" s="22" customFormat="1">
       <c r="A46" s="22">
         <v>45</v>
       </c>
@@ -4790,7 +4799,7 @@
       <c r="AMI46"/>
       <c r="AMJ46"/>
     </row>
-    <row r="47" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:1024" s="22" customFormat="1">
       <c r="A47" s="22">
         <v>46</v>
       </c>
@@ -4858,7 +4867,7 @@
       <c r="AMI47"/>
       <c r="AMJ47"/>
     </row>
-    <row r="48" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:1024" s="22" customFormat="1">
       <c r="A48" s="22">
         <v>47</v>
       </c>
@@ -4926,7 +4935,7 @@
       <c r="AMI48"/>
       <c r="AMJ48"/>
     </row>
-    <row r="49" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1024" s="22" customFormat="1">
       <c r="A49" s="22">
         <v>48</v>
       </c>
@@ -4994,7 +5003,7 @@
       <c r="AMI49"/>
       <c r="AMJ49"/>
     </row>
-    <row r="50" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1024" s="22" customFormat="1">
       <c r="A50" s="22">
         <v>49</v>
       </c>
@@ -5062,7 +5071,7 @@
       <c r="AMI50"/>
       <c r="AMJ50"/>
     </row>
-    <row r="51" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1024" s="22" customFormat="1">
       <c r="A51" s="22">
         <v>50</v>
       </c>
@@ -5130,7 +5139,7 @@
       <c r="AMI51"/>
       <c r="AMJ51"/>
     </row>
-    <row r="52" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1024" s="22" customFormat="1">
       <c r="A52" s="22">
         <v>51</v>
       </c>
@@ -5198,7 +5207,7 @@
       <c r="AMI52"/>
       <c r="AMJ52"/>
     </row>
-    <row r="53" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1024" s="22" customFormat="1">
       <c r="A53" s="22">
         <v>52</v>
       </c>
@@ -5266,7 +5275,7 @@
       <c r="AMI53"/>
       <c r="AMJ53"/>
     </row>
-    <row r="54" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1024" s="22" customFormat="1">
       <c r="A54" s="22">
         <v>53</v>
       </c>
@@ -5334,7 +5343,7 @@
       <c r="AMI54"/>
       <c r="AMJ54"/>
     </row>
-    <row r="55" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1024" s="22" customFormat="1">
       <c r="A55" s="22">
         <v>54</v>
       </c>
@@ -5402,7 +5411,7 @@
       <c r="AMI55"/>
       <c r="AMJ55"/>
     </row>
-    <row r="56" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:1024" s="22" customFormat="1">
       <c r="A56" s="22">
         <v>55</v>
       </c>
@@ -5470,7 +5479,7 @@
       <c r="AMI56"/>
       <c r="AMJ56"/>
     </row>
-    <row r="57" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:1024" s="22" customFormat="1">
       <c r="A57" s="22">
         <v>56</v>
       </c>
@@ -5538,7 +5547,7 @@
       <c r="AMI57"/>
       <c r="AMJ57"/>
     </row>
-    <row r="58" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:1024" s="22" customFormat="1">
       <c r="A58" s="22">
         <v>57</v>
       </c>
@@ -5606,7 +5615,7 @@
       <c r="AMI58"/>
       <c r="AMJ58"/>
     </row>
-    <row r="59" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:1024" s="22" customFormat="1">
       <c r="A59" s="22">
         <v>58</v>
       </c>
@@ -5674,7 +5683,7 @@
       <c r="AMI59"/>
       <c r="AMJ59"/>
     </row>
-    <row r="60" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:1024" s="22" customFormat="1">
       <c r="A60" s="22">
         <v>59</v>
       </c>
@@ -5742,7 +5751,7 @@
       <c r="AMI60"/>
       <c r="AMJ60"/>
     </row>
-    <row r="61" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:1024" s="22" customFormat="1">
       <c r="A61" s="22">
         <v>60</v>
       </c>
@@ -5810,7 +5819,7 @@
       <c r="AMI61"/>
       <c r="AMJ61"/>
     </row>
-    <row r="62" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:1024" s="22" customFormat="1">
       <c r="A62" s="22">
         <v>61</v>
       </c>
@@ -5878,7 +5887,7 @@
       <c r="AMI62"/>
       <c r="AMJ62"/>
     </row>
-    <row r="63" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:1024" s="22" customFormat="1">
       <c r="A63" s="22">
         <v>62</v>
       </c>
@@ -5946,7 +5955,7 @@
       <c r="AMI63"/>
       <c r="AMJ63"/>
     </row>
-    <row r="64" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:1024" s="22" customFormat="1">
       <c r="A64" s="22">
         <v>63</v>
       </c>
@@ -6014,7 +6023,7 @@
       <c r="AMI64"/>
       <c r="AMJ64"/>
     </row>
-    <row r="65" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1024" s="22" customFormat="1">
       <c r="A65" s="22">
         <v>64</v>
       </c>
@@ -6082,7 +6091,7 @@
       <c r="AMI65"/>
       <c r="AMJ65"/>
     </row>
-    <row r="66" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1024" s="22" customFormat="1">
       <c r="A66" s="22">
         <v>65</v>
       </c>
@@ -6150,7 +6159,7 @@
       <c r="AMI66"/>
       <c r="AMJ66"/>
     </row>
-    <row r="67" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:1024" s="22" customFormat="1">
       <c r="A67" s="22">
         <v>66</v>
       </c>
@@ -6218,7 +6227,7 @@
       <c r="AMI67"/>
       <c r="AMJ67"/>
     </row>
-    <row r="68" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:1024" s="22" customFormat="1">
       <c r="A68" s="22">
         <v>67</v>
       </c>
@@ -6286,7 +6295,7 @@
       <c r="AMI68"/>
       <c r="AMJ68"/>
     </row>
-    <row r="69" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:1024" s="22" customFormat="1">
       <c r="A69" s="22">
         <v>68</v>
       </c>
@@ -6354,7 +6363,7 @@
       <c r="AMI69"/>
       <c r="AMJ69"/>
     </row>
-    <row r="70" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:1024" s="22" customFormat="1">
       <c r="A70" s="22">
         <v>69</v>
       </c>
@@ -6422,7 +6431,7 @@
       <c r="AMI70"/>
       <c r="AMJ70"/>
     </row>
-    <row r="71" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:1024" s="22" customFormat="1">
       <c r="A71" s="22">
         <v>70</v>
       </c>
@@ -6490,7 +6499,7 @@
       <c r="AMI71"/>
       <c r="AMJ71"/>
     </row>
-    <row r="72" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:1024" s="22" customFormat="1">
       <c r="A72" s="22">
         <v>71</v>
       </c>
@@ -6558,7 +6567,7 @@
       <c r="AMI72"/>
       <c r="AMJ72"/>
     </row>
-    <row r="73" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:1024" s="22" customFormat="1">
       <c r="A73" s="22">
         <v>72</v>
       </c>
@@ -6626,7 +6635,7 @@
       <c r="AMI73"/>
       <c r="AMJ73"/>
     </row>
-    <row r="74" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:1024" s="22" customFormat="1">
       <c r="A74" s="22">
         <v>73</v>
       </c>
@@ -6694,7 +6703,7 @@
       <c r="AMI74"/>
       <c r="AMJ74"/>
     </row>
-    <row r="75" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:1024" s="22" customFormat="1">
       <c r="A75" s="22">
         <v>74</v>
       </c>
@@ -6762,7 +6771,7 @@
       <c r="AMI75"/>
       <c r="AMJ75"/>
     </row>
-    <row r="76" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:1024" s="22" customFormat="1">
       <c r="A76" s="22">
         <v>75</v>
       </c>
@@ -6830,7 +6839,7 @@
       <c r="AMI76"/>
       <c r="AMJ76"/>
     </row>
-    <row r="77" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:1024" s="22" customFormat="1">
       <c r="A77" s="22">
         <v>76</v>
       </c>
@@ -6898,7 +6907,7 @@
       <c r="AMI77"/>
       <c r="AMJ77"/>
     </row>
-    <row r="78" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:1024" s="22" customFormat="1">
       <c r="A78" s="22">
         <v>77</v>
       </c>
@@ -6966,7 +6975,7 @@
       <c r="AMI78"/>
       <c r="AMJ78"/>
     </row>
-    <row r="79" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:1024" s="22" customFormat="1">
       <c r="A79" s="22">
         <v>78</v>
       </c>
@@ -7034,7 +7043,7 @@
       <c r="AMI79"/>
       <c r="AMJ79"/>
     </row>
-    <row r="80" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:1024" s="22" customFormat="1">
       <c r="A80" s="22">
         <v>79</v>
       </c>
@@ -7102,7 +7111,7 @@
       <c r="AMI80"/>
       <c r="AMJ80"/>
     </row>
-    <row r="81" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:1024" s="22" customFormat="1">
       <c r="A81" s="22">
         <v>80</v>
       </c>
@@ -7170,7 +7179,7 @@
       <c r="AMI81"/>
       <c r="AMJ81"/>
     </row>
-    <row r="82" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:1024" s="22" customFormat="1">
       <c r="A82" s="22">
         <v>81</v>
       </c>
@@ -7238,7 +7247,7 @@
       <c r="AMI82"/>
       <c r="AMJ82"/>
     </row>
-    <row r="83" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:1024" s="22" customFormat="1">
       <c r="A83" s="22">
         <v>82</v>
       </c>
@@ -7306,7 +7315,7 @@
       <c r="AMI83"/>
       <c r="AMJ83"/>
     </row>
-    <row r="84" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:1024" s="22" customFormat="1">
       <c r="A84" s="22">
         <v>83</v>
       </c>
@@ -7374,7 +7383,7 @@
       <c r="AMI84"/>
       <c r="AMJ84"/>
     </row>
-    <row r="85" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:1024" s="22" customFormat="1">
       <c r="A85" s="22">
         <v>84</v>
       </c>
@@ -7442,7 +7451,7 @@
       <c r="AMI85"/>
       <c r="AMJ85"/>
     </row>
-    <row r="86" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:1024" s="22" customFormat="1">
       <c r="A86" s="22">
         <v>85</v>
       </c>
@@ -7510,7 +7519,7 @@
       <c r="AMI86"/>
       <c r="AMJ86"/>
     </row>
-    <row r="87" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:1024" s="22" customFormat="1">
       <c r="A87" s="22">
         <v>86</v>
       </c>
@@ -7578,7 +7587,7 @@
       <c r="AMI87"/>
       <c r="AMJ87"/>
     </row>
-    <row r="88" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:1024" s="22" customFormat="1">
       <c r="A88" s="22">
         <v>87</v>
       </c>
@@ -7646,7 +7655,7 @@
       <c r="AMI88"/>
       <c r="AMJ88"/>
     </row>
-    <row r="89" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:1024" s="22" customFormat="1">
       <c r="A89" s="22">
         <v>88</v>
       </c>
@@ -7714,7 +7723,7 @@
       <c r="AMI89"/>
       <c r="AMJ89"/>
     </row>
-    <row r="90" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:1024" s="22" customFormat="1">
       <c r="A90" s="22">
         <v>89</v>
       </c>
@@ -7782,7 +7791,7 @@
       <c r="AMI90"/>
       <c r="AMJ90"/>
     </row>
-    <row r="91" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:1024" s="22" customFormat="1">
       <c r="A91" s="22">
         <v>90</v>
       </c>
@@ -7850,7 +7859,7 @@
       <c r="AMI91"/>
       <c r="AMJ91"/>
     </row>
-    <row r="92" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:1024" s="22" customFormat="1">
       <c r="A92" s="22">
         <v>91</v>
       </c>
@@ -7918,7 +7927,7 @@
       <c r="AMI92"/>
       <c r="AMJ92"/>
     </row>
-    <row r="93" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:1024" s="22" customFormat="1">
       <c r="A93" s="22">
         <v>92</v>
       </c>
@@ -7986,7 +7995,7 @@
       <c r="AMI93"/>
       <c r="AMJ93"/>
     </row>
-    <row r="94" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:1024" s="22" customFormat="1">
       <c r="A94" s="22">
         <v>93</v>
       </c>
@@ -8054,7 +8063,7 @@
       <c r="AMI94"/>
       <c r="AMJ94"/>
     </row>
-    <row r="95" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:1024" s="22" customFormat="1">
       <c r="A95" s="22">
         <v>94</v>
       </c>
@@ -8122,7 +8131,7 @@
       <c r="AMI95"/>
       <c r="AMJ95"/>
     </row>
-    <row r="96" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:1024" s="22" customFormat="1">
       <c r="A96" s="22">
         <v>95</v>
       </c>
@@ -8151,7 +8160,7 @@
         <v>5</v>
       </c>
       <c r="J96" s="24" t="s">
-        <v>127</v>
+        <v>308</v>
       </c>
       <c r="K96" s="25" t="s">
         <v>122</v>
@@ -8165,21 +8174,15 @@
       <c r="N96" s="28"/>
       <c r="O96" s="28"/>
       <c r="P96" s="29"/>
-      <c r="Q96" s="30">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="Q96" s="30"/>
       <c r="R96" s="29"/>
       <c r="S96" s="29"/>
       <c r="T96" s="31"/>
       <c r="U96" s="32"/>
-      <c r="V96" s="33">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="V96" s="33"/>
       <c r="W96" s="34"/>
-      <c r="X96" s="23" t="s">
-        <v>33</v>
+      <c r="X96" s="38" t="s">
+        <v>309</v>
       </c>
       <c r="Y96" s="22">
         <v>1</v>
@@ -8188,7 +8191,7 @@
       <c r="AMI96"/>
       <c r="AMJ96"/>
     </row>
-    <row r="97" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:1024" s="22" customFormat="1">
       <c r="A97" s="22">
         <v>96</v>
       </c>
@@ -8217,7 +8220,7 @@
         <v>5</v>
       </c>
       <c r="J97" s="24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K97" s="25" t="s">
         <v>122</v>
@@ -8256,7 +8259,7 @@
       <c r="AMI97"/>
       <c r="AMJ97"/>
     </row>
-    <row r="98" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:1024" s="22" customFormat="1">
       <c r="A98" s="22">
         <v>97</v>
       </c>
@@ -8285,7 +8288,7 @@
         <v>5</v>
       </c>
       <c r="J98" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K98" s="25" t="s">
         <v>122</v>
@@ -8324,7 +8327,7 @@
       <c r="AMI98"/>
       <c r="AMJ98"/>
     </row>
-    <row r="99" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:1024" s="22" customFormat="1">
       <c r="A99" s="22">
         <v>98</v>
       </c>
@@ -8353,7 +8356,7 @@
         <v>5</v>
       </c>
       <c r="J99" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K99" s="25" t="s">
         <v>122</v>
@@ -8392,7 +8395,7 @@
       <c r="AMI99"/>
       <c r="AMJ99"/>
     </row>
-    <row r="100" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:1024" s="22" customFormat="1">
       <c r="A100" s="22">
         <v>99</v>
       </c>
@@ -8421,7 +8424,7 @@
         <v>5</v>
       </c>
       <c r="J100" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K100" s="25" t="s">
         <v>122</v>
@@ -8460,7 +8463,7 @@
       <c r="AMI100"/>
       <c r="AMJ100"/>
     </row>
-    <row r="101" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:1024" s="22" customFormat="1">
       <c r="A101" s="22">
         <v>100</v>
       </c>
@@ -8489,7 +8492,7 @@
         <v>5</v>
       </c>
       <c r="J101" s="24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K101" s="25" t="s">
         <v>122</v>
@@ -8528,7 +8531,7 @@
       <c r="AMI101"/>
       <c r="AMJ101"/>
     </row>
-    <row r="102" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:1024" s="22" customFormat="1">
       <c r="A102" s="22">
         <v>101</v>
       </c>
@@ -8557,7 +8560,7 @@
         <v>5</v>
       </c>
       <c r="J102" s="24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K102" s="25" t="s">
         <v>122</v>
@@ -8596,7 +8599,7 @@
       <c r="AMI102"/>
       <c r="AMJ102"/>
     </row>
-    <row r="103" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:1024" s="22" customFormat="1">
       <c r="A103" s="22">
         <v>102</v>
       </c>
@@ -8625,7 +8628,7 @@
         <v>5</v>
       </c>
       <c r="J103" s="24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K103" s="25" t="s">
         <v>122</v>
@@ -8664,7 +8667,7 @@
       <c r="AMI103"/>
       <c r="AMJ103"/>
     </row>
-    <row r="104" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:1024" s="22" customFormat="1">
       <c r="A104" s="22">
         <v>103</v>
       </c>
@@ -8693,7 +8696,7 @@
         <v>5</v>
       </c>
       <c r="J104" s="24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K104" s="25" t="s">
         <v>122</v>
@@ -8702,7 +8705,7 @@
         <v>75</v>
       </c>
       <c r="M104" s="27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N104" s="28">
         <v>15</v>
@@ -8732,7 +8735,7 @@
       <c r="AMI104"/>
       <c r="AMJ104"/>
     </row>
-    <row r="105" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:1024" s="22" customFormat="1">
       <c r="A105" s="22">
         <v>104</v>
       </c>
@@ -8761,7 +8764,7 @@
         <v>5</v>
       </c>
       <c r="J105" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K105" s="25" t="s">
         <v>122</v>
@@ -8800,7 +8803,7 @@
       <c r="AMI105"/>
       <c r="AMJ105"/>
     </row>
-    <row r="106" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:1024" s="22" customFormat="1">
       <c r="A106" s="22">
         <v>105</v>
       </c>
@@ -8829,7 +8832,7 @@
         <v>5</v>
       </c>
       <c r="J106" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K106" s="25" t="s">
         <v>122</v>
@@ -8868,7 +8871,7 @@
       <c r="AMI106"/>
       <c r="AMJ106"/>
     </row>
-    <row r="107" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:1024" s="22" customFormat="1">
       <c r="A107" s="22">
         <v>106</v>
       </c>
@@ -8897,7 +8900,7 @@
         <v>5</v>
       </c>
       <c r="J107" s="24" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K107" s="25" t="s">
         <v>122</v>
@@ -8936,7 +8939,7 @@
       <c r="AMI107"/>
       <c r="AMJ107"/>
     </row>
-    <row r="108" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:1024" s="22" customFormat="1">
       <c r="A108" s="22">
         <v>107</v>
       </c>
@@ -8965,7 +8968,7 @@
         <v>5</v>
       </c>
       <c r="J108" s="24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K108" s="25" t="s">
         <v>122</v>
@@ -9004,7 +9007,7 @@
       <c r="AMI108"/>
       <c r="AMJ108"/>
     </row>
-    <row r="109" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:1024" s="22" customFormat="1">
       <c r="A109" s="22">
         <v>108</v>
       </c>
@@ -9033,7 +9036,7 @@
         <v>6</v>
       </c>
       <c r="J109" s="24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K109" s="25" t="s">
         <v>122</v>
@@ -9072,7 +9075,7 @@
       <c r="AMI109"/>
       <c r="AMJ109"/>
     </row>
-    <row r="110" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:1024" s="22" customFormat="1">
       <c r="A110" s="22">
         <v>109</v>
       </c>
@@ -9101,7 +9104,7 @@
         <v>6</v>
       </c>
       <c r="J110" s="24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K110" s="25" t="s">
         <v>122</v>
@@ -9140,7 +9143,7 @@
       <c r="AMI110"/>
       <c r="AMJ110"/>
     </row>
-    <row r="111" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:1024" s="22" customFormat="1">
       <c r="A111" s="22">
         <v>110</v>
       </c>
@@ -9169,7 +9172,7 @@
         <v>6</v>
       </c>
       <c r="J111" s="24" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K111" s="25" t="s">
         <v>122</v>
@@ -9208,7 +9211,7 @@
       <c r="AMI111"/>
       <c r="AMJ111"/>
     </row>
-    <row r="112" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:1024" s="22" customFormat="1">
       <c r="A112" s="22">
         <v>111</v>
       </c>
@@ -9237,7 +9240,7 @@
         <v>6</v>
       </c>
       <c r="J112" s="24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K112" s="25" t="s">
         <v>122</v>
@@ -9276,7 +9279,7 @@
       <c r="AMI112"/>
       <c r="AMJ112"/>
     </row>
-    <row r="113" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:1024" s="22" customFormat="1">
       <c r="A113" s="22">
         <v>112</v>
       </c>
@@ -9305,7 +9308,7 @@
         <v>6</v>
       </c>
       <c r="J113" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K113" s="25" t="s">
         <v>122</v>
@@ -9344,7 +9347,7 @@
       <c r="AMI113"/>
       <c r="AMJ113"/>
     </row>
-    <row r="114" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:1024" s="22" customFormat="1">
       <c r="A114" s="22">
         <v>113</v>
       </c>
@@ -9373,7 +9376,7 @@
         <v>6</v>
       </c>
       <c r="J114" s="24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K114" s="25" t="s">
         <v>122</v>
@@ -9382,7 +9385,7 @@
         <v>500</v>
       </c>
       <c r="M114" s="27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N114" s="28"/>
       <c r="O114" s="28">
@@ -9412,7 +9415,7 @@
       <c r="AMI114"/>
       <c r="AMJ114"/>
     </row>
-    <row r="115" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:1024" s="22" customFormat="1">
       <c r="A115" s="22">
         <v>114</v>
       </c>
@@ -9441,7 +9444,7 @@
         <v>6</v>
       </c>
       <c r="J115" s="24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K115" s="25" t="s">
         <v>122</v>
@@ -9480,7 +9483,7 @@
       <c r="AMI115"/>
       <c r="AMJ115"/>
     </row>
-    <row r="116" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:1024" s="22" customFormat="1">
       <c r="A116" s="22">
         <v>115</v>
       </c>
@@ -9509,7 +9512,7 @@
         <v>6</v>
       </c>
       <c r="J116" s="24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K116" s="25" t="s">
         <v>122</v>
@@ -9548,7 +9551,7 @@
       <c r="AMI116"/>
       <c r="AMJ116"/>
     </row>
-    <row r="117" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:1024" s="22" customFormat="1">
       <c r="A117" s="22">
         <v>116</v>
       </c>
@@ -9577,7 +9580,7 @@
         <v>6</v>
       </c>
       <c r="J117" s="24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K117" s="25" t="s">
         <v>122</v>
@@ -9616,7 +9619,7 @@
       <c r="AMI117"/>
       <c r="AMJ117"/>
     </row>
-    <row r="118" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:1024" s="22" customFormat="1">
       <c r="A118" s="22">
         <v>117</v>
       </c>
@@ -9645,7 +9648,7 @@
         <v>6</v>
       </c>
       <c r="J118" s="24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K118" s="25" t="s">
         <v>122</v>
@@ -9684,7 +9687,7 @@
       <c r="AMI118"/>
       <c r="AMJ118"/>
     </row>
-    <row r="119" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:1024" s="22" customFormat="1">
       <c r="A119" s="22">
         <v>118</v>
       </c>
@@ -9713,7 +9716,7 @@
         <v>6</v>
       </c>
       <c r="J119" s="24" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K119" s="25" t="s">
         <v>122</v>
@@ -9752,7 +9755,7 @@
       <c r="AMI119"/>
       <c r="AMJ119"/>
     </row>
-    <row r="120" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:1024" s="22" customFormat="1">
       <c r="A120" s="22">
         <v>119</v>
       </c>
@@ -9820,7 +9823,7 @@
       <c r="AMI120"/>
       <c r="AMJ120"/>
     </row>
-    <row r="121" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:1024" s="22" customFormat="1">
       <c r="A121" s="22">
         <v>120</v>
       </c>
@@ -9888,7 +9891,7 @@
       <c r="AMI121"/>
       <c r="AMJ121"/>
     </row>
-    <row r="122" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:1024" s="22" customFormat="1">
       <c r="A122" s="22">
         <v>121</v>
       </c>
@@ -9956,7 +9959,7 @@
       <c r="AMI122"/>
       <c r="AMJ122"/>
     </row>
-    <row r="123" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:1024" s="22" customFormat="1">
       <c r="A123" s="22">
         <v>122</v>
       </c>
@@ -9985,7 +9988,7 @@
         <v>6</v>
       </c>
       <c r="J123" s="24" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K123" s="25" t="s">
         <v>122</v>
@@ -10024,7 +10027,7 @@
       <c r="AMI123"/>
       <c r="AMJ123"/>
     </row>
-    <row r="124" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:1024" s="22" customFormat="1">
       <c r="A124" s="22">
         <v>123</v>
       </c>
@@ -10053,7 +10056,7 @@
         <v>6</v>
       </c>
       <c r="J124" s="24" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K124" s="25" t="s">
         <v>122</v>
@@ -10092,7 +10095,7 @@
       <c r="AMI124"/>
       <c r="AMJ124"/>
     </row>
-    <row r="125" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:1024" s="22" customFormat="1">
       <c r="A125" s="22">
         <v>124</v>
       </c>
@@ -10121,7 +10124,7 @@
         <v>6</v>
       </c>
       <c r="J125" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K125" s="25" t="s">
         <v>122</v>
@@ -10160,7 +10163,7 @@
       <c r="AMI125"/>
       <c r="AMJ125"/>
     </row>
-    <row r="126" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:1024" s="22" customFormat="1">
       <c r="A126" s="22">
         <v>125</v>
       </c>
@@ -10189,7 +10192,7 @@
         <v>6</v>
       </c>
       <c r="J126" s="24" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K126" s="25" t="s">
         <v>122</v>
@@ -10226,7 +10229,7 @@
       <c r="AMI126"/>
       <c r="AMJ126"/>
     </row>
-    <row r="127" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:1024" s="22" customFormat="1">
       <c r="A127" s="22">
         <v>126</v>
       </c>
@@ -10255,7 +10258,7 @@
         <v>6</v>
       </c>
       <c r="J127" s="24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K127" s="25" t="s">
         <v>122</v>
@@ -10294,7 +10297,7 @@
       <c r="AMI127"/>
       <c r="AMJ127"/>
     </row>
-    <row r="128" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:1024" s="22" customFormat="1">
       <c r="A128" s="22">
         <v>127</v>
       </c>
@@ -10362,7 +10365,7 @@
       <c r="AMI128"/>
       <c r="AMJ128"/>
     </row>
-    <row r="129" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:1024" s="22" customFormat="1">
       <c r="A129" s="22">
         <v>128</v>
       </c>
@@ -10391,7 +10394,7 @@
         <v>6</v>
       </c>
       <c r="J129" s="24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K129" s="25" t="s">
         <v>122</v>
@@ -10430,7 +10433,7 @@
       <c r="AMI129"/>
       <c r="AMJ129"/>
     </row>
-    <row r="130" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:1024" s="22" customFormat="1">
       <c r="A130" s="22">
         <v>129</v>
       </c>
@@ -10459,7 +10462,7 @@
         <v>6</v>
       </c>
       <c r="J130" s="24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K130" s="25" t="s">
         <v>122</v>
@@ -10498,7 +10501,7 @@
       <c r="AMI130"/>
       <c r="AMJ130"/>
     </row>
-    <row r="131" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:1024" s="22" customFormat="1">
       <c r="A131" s="22">
         <v>130</v>
       </c>
@@ -10566,7 +10569,7 @@
       <c r="AMI131"/>
       <c r="AMJ131"/>
     </row>
-    <row r="132" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:1024" s="22" customFormat="1">
       <c r="A132" s="22">
         <v>131</v>
       </c>
@@ -10595,7 +10598,7 @@
         <v>6</v>
       </c>
       <c r="J132" s="24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K132" s="25" t="s">
         <v>122</v>
@@ -10634,7 +10637,7 @@
       <c r="AMI132"/>
       <c r="AMJ132"/>
     </row>
-    <row r="133" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:1024" s="22" customFormat="1">
       <c r="A133" s="22">
         <v>132</v>
       </c>
@@ -10663,7 +10666,7 @@
         <v>6</v>
       </c>
       <c r="J133" s="24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K133" s="25" t="s">
         <v>122</v>
@@ -10702,7 +10705,7 @@
       <c r="AMI133"/>
       <c r="AMJ133"/>
     </row>
-    <row r="134" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:1024" s="22" customFormat="1">
       <c r="A134" s="22">
         <v>133</v>
       </c>
@@ -10731,7 +10734,7 @@
         <v>6</v>
       </c>
       <c r="J134" s="24" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K134" s="25" t="s">
         <v>122</v>
@@ -10770,7 +10773,7 @@
       <c r="AMI134"/>
       <c r="AMJ134"/>
     </row>
-    <row r="135" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:1024" s="22" customFormat="1">
       <c r="A135" s="22">
         <v>134</v>
       </c>
@@ -10799,7 +10802,7 @@
         <v>6</v>
       </c>
       <c r="J135" s="24" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K135" s="25" t="s">
         <v>122</v>
@@ -10838,7 +10841,7 @@
       <c r="AMI135"/>
       <c r="AMJ135"/>
     </row>
-    <row r="136" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:1024" s="22" customFormat="1">
       <c r="A136" s="22">
         <v>135</v>
       </c>
@@ -10867,7 +10870,7 @@
         <v>6</v>
       </c>
       <c r="J136" s="24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K136" s="25" t="s">
         <v>122</v>
@@ -10906,7 +10909,7 @@
       <c r="AMI136"/>
       <c r="AMJ136"/>
     </row>
-    <row r="137" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:1024" s="22" customFormat="1">
       <c r="A137" s="22">
         <v>136</v>
       </c>
@@ -10935,7 +10938,7 @@
         <v>7</v>
       </c>
       <c r="J137" s="24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K137" s="25" t="s">
         <v>122</v>
@@ -10974,7 +10977,7 @@
       <c r="AMI137"/>
       <c r="AMJ137"/>
     </row>
-    <row r="138" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:1024" s="22" customFormat="1">
       <c r="A138" s="22">
         <v>137</v>
       </c>
@@ -11003,7 +11006,7 @@
         <v>7</v>
       </c>
       <c r="J138" s="24" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K138" s="25" t="s">
         <v>122</v>
@@ -11042,7 +11045,7 @@
       <c r="AMI138"/>
       <c r="AMJ138"/>
     </row>
-    <row r="139" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:1024" s="22" customFormat="1">
       <c r="A139" s="22">
         <v>138</v>
       </c>
@@ -11071,7 +11074,7 @@
         <v>7</v>
       </c>
       <c r="J139" s="24" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K139" s="25" t="s">
         <v>122</v>
@@ -11110,7 +11113,7 @@
       <c r="AMI139"/>
       <c r="AMJ139"/>
     </row>
-    <row r="140" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:1024" s="22" customFormat="1">
       <c r="A140" s="22">
         <v>139</v>
       </c>
@@ -11139,7 +11142,7 @@
         <v>7</v>
       </c>
       <c r="J140" s="24" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K140" s="25" t="s">
         <v>122</v>
@@ -11180,7 +11183,7 @@
       <c r="AMI140"/>
       <c r="AMJ140"/>
     </row>
-    <row r="141" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:1024" s="22" customFormat="1">
       <c r="A141" s="22">
         <v>140</v>
       </c>
@@ -11209,7 +11212,7 @@
         <v>7</v>
       </c>
       <c r="J141" s="24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K141" s="25" t="s">
         <v>122</v>
@@ -11218,7 +11221,7 @@
         <v>146</v>
       </c>
       <c r="M141" s="27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N141" s="28"/>
       <c r="O141" s="28">
@@ -11248,7 +11251,7 @@
       <c r="AMI141"/>
       <c r="AMJ141"/>
     </row>
-    <row r="142" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:1024" s="22" customFormat="1">
       <c r="A142" s="22">
         <v>141</v>
       </c>
@@ -11277,7 +11280,7 @@
         <v>7</v>
       </c>
       <c r="J142" s="24" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K142" s="25" t="s">
         <v>122</v>
@@ -11316,7 +11319,7 @@
       <c r="AMI142"/>
       <c r="AMJ142"/>
     </row>
-    <row r="143" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:1024" s="22" customFormat="1">
       <c r="A143" s="22">
         <v>142</v>
       </c>
@@ -11345,7 +11348,7 @@
         <v>7</v>
       </c>
       <c r="J143" s="24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K143" s="25" t="s">
         <v>122</v>
@@ -11384,7 +11387,7 @@
       <c r="AMI143"/>
       <c r="AMJ143"/>
     </row>
-    <row r="144" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:1024" s="22" customFormat="1">
       <c r="A144" s="22">
         <v>143</v>
       </c>
@@ -11413,7 +11416,7 @@
         <v>7</v>
       </c>
       <c r="J144" s="24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K144" s="25" t="s">
         <v>122</v>
@@ -11452,7 +11455,7 @@
       <c r="AMI144"/>
       <c r="AMJ144"/>
     </row>
-    <row r="145" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:1024" s="22" customFormat="1">
       <c r="A145" s="22">
         <v>144</v>
       </c>
@@ -11481,7 +11484,7 @@
         <v>7</v>
       </c>
       <c r="J145" s="24" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K145" s="25" t="s">
         <v>122</v>
@@ -11520,7 +11523,7 @@
       <c r="AMI145"/>
       <c r="AMJ145"/>
     </row>
-    <row r="146" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:1024" s="22" customFormat="1">
       <c r="A146" s="22">
         <v>145</v>
       </c>
@@ -11588,7 +11591,7 @@
       <c r="AMI146"/>
       <c r="AMJ146"/>
     </row>
-    <row r="147" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:1024" s="22" customFormat="1">
       <c r="A147" s="22">
         <v>146</v>
       </c>
@@ -11617,7 +11620,7 @@
         <v>7</v>
       </c>
       <c r="J147" s="24" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K147" s="25" t="s">
         <v>122</v>
@@ -11656,7 +11659,7 @@
       <c r="AMI147"/>
       <c r="AMJ147"/>
     </row>
-    <row r="148" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:1024" s="22" customFormat="1">
       <c r="A148" s="22">
         <v>147</v>
       </c>
@@ -11685,7 +11688,7 @@
         <v>7</v>
       </c>
       <c r="J148" s="24" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K148" s="25" t="s">
         <v>122</v>
@@ -11724,7 +11727,7 @@
       <c r="AMI148"/>
       <c r="AMJ148"/>
     </row>
-    <row r="149" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:1024" s="22" customFormat="1">
       <c r="A149" s="22">
         <v>148</v>
       </c>
@@ -11792,7 +11795,7 @@
       <c r="AMI149"/>
       <c r="AMJ149"/>
     </row>
-    <row r="150" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:1024" s="22" customFormat="1">
       <c r="A150" s="22">
         <v>149</v>
       </c>
@@ -11821,7 +11824,7 @@
         <v>7</v>
       </c>
       <c r="J150" s="24" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K150" s="25" t="s">
         <v>122</v>
@@ -11860,7 +11863,7 @@
       <c r="AMI150"/>
       <c r="AMJ150"/>
     </row>
-    <row r="151" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:1024" s="22" customFormat="1">
       <c r="A151" s="22">
         <v>150</v>
       </c>
@@ -11889,7 +11892,7 @@
         <v>7</v>
       </c>
       <c r="J151" s="24" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K151" s="25" t="s">
         <v>122</v>
@@ -11928,7 +11931,7 @@
       <c r="AMI151"/>
       <c r="AMJ151"/>
     </row>
-    <row r="152" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:1024" s="22" customFormat="1">
       <c r="A152" s="22">
         <v>151</v>
       </c>
@@ -11957,7 +11960,7 @@
         <v>7</v>
       </c>
       <c r="J152" s="24" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K152" s="25" t="s">
         <v>122</v>
@@ -11996,7 +11999,7 @@
       <c r="AMI152"/>
       <c r="AMJ152"/>
     </row>
-    <row r="153" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:1024" s="22" customFormat="1">
       <c r="A153" s="22">
         <v>152</v>
       </c>
@@ -12025,7 +12028,7 @@
         <v>7</v>
       </c>
       <c r="J153" s="24" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K153" s="25" t="s">
         <v>122</v>
@@ -12064,7 +12067,7 @@
       <c r="AMI153"/>
       <c r="AMJ153"/>
     </row>
-    <row r="154" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:1024" s="22" customFormat="1">
       <c r="A154" s="22">
         <v>153</v>
       </c>
@@ -12093,7 +12096,7 @@
         <v>7</v>
       </c>
       <c r="J154" s="24" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K154" s="25" t="s">
         <v>122</v>
@@ -12132,7 +12135,7 @@
       <c r="AMI154"/>
       <c r="AMJ154"/>
     </row>
-    <row r="155" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:1024" s="22" customFormat="1">
       <c r="A155" s="22">
         <v>154</v>
       </c>
@@ -12161,7 +12164,7 @@
         <v>7</v>
       </c>
       <c r="J155" s="24" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K155" s="25" t="s">
         <v>122</v>
@@ -12200,7 +12203,7 @@
       <c r="AMI155"/>
       <c r="AMJ155"/>
     </row>
-    <row r="156" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:1024" s="22" customFormat="1">
       <c r="A156" s="22">
         <v>155</v>
       </c>
@@ -12229,7 +12232,7 @@
         <v>7</v>
       </c>
       <c r="J156" s="24" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K156" s="25" t="s">
         <v>122</v>
@@ -12268,7 +12271,7 @@
       <c r="AMI156"/>
       <c r="AMJ156"/>
     </row>
-    <row r="157" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:1024" s="22" customFormat="1">
       <c r="A157" s="22">
         <v>156</v>
       </c>
@@ -12297,7 +12300,7 @@
         <v>7</v>
       </c>
       <c r="J157" s="24" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K157" s="25" t="s">
         <v>122</v>
@@ -12336,7 +12339,7 @@
       <c r="AMI157"/>
       <c r="AMJ157"/>
     </row>
-    <row r="158" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:1024" s="22" customFormat="1">
       <c r="A158" s="22">
         <v>157</v>
       </c>
@@ -12365,7 +12368,7 @@
         <v>7</v>
       </c>
       <c r="J158" s="24" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K158" s="25" t="s">
         <v>122</v>
@@ -12404,7 +12407,7 @@
       <c r="AMI158"/>
       <c r="AMJ158"/>
     </row>
-    <row r="159" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:1024" s="22" customFormat="1">
       <c r="A159" s="22">
         <v>158</v>
       </c>
@@ -12433,7 +12436,7 @@
         <v>7</v>
       </c>
       <c r="J159" s="24" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K159" s="25" t="s">
         <v>122</v>
@@ -12472,7 +12475,7 @@
       <c r="AMI159"/>
       <c r="AMJ159"/>
     </row>
-    <row r="160" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:1024" s="22" customFormat="1">
       <c r="A160" s="22">
         <v>159</v>
       </c>
@@ -12540,7 +12543,7 @@
       <c r="AMI160"/>
       <c r="AMJ160"/>
     </row>
-    <row r="161" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:1024" s="22" customFormat="1">
       <c r="A161" s="22">
         <v>160</v>
       </c>
@@ -12569,7 +12572,7 @@
         <v>7</v>
       </c>
       <c r="J161" s="24" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K161" s="25" t="s">
         <v>122</v>
@@ -12608,7 +12611,7 @@
       <c r="AMI161"/>
       <c r="AMJ161"/>
     </row>
-    <row r="162" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:1024" s="22" customFormat="1">
       <c r="A162" s="22">
         <v>161</v>
       </c>
@@ -12637,7 +12640,7 @@
         <v>7</v>
       </c>
       <c r="J162" s="24" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K162" s="25" t="s">
         <v>122</v>
@@ -12676,7 +12679,7 @@
       <c r="AMI162"/>
       <c r="AMJ162"/>
     </row>
-    <row r="163" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:1024" s="22" customFormat="1">
       <c r="A163" s="22">
         <v>162</v>
       </c>
@@ -12705,7 +12708,7 @@
         <v>7</v>
       </c>
       <c r="J163" s="24" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K163" s="25" t="s">
         <v>122</v>
@@ -12744,7 +12747,7 @@
       <c r="AMI163"/>
       <c r="AMJ163"/>
     </row>
-    <row r="164" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:1024" s="22" customFormat="1">
       <c r="A164" s="22">
         <v>163</v>
       </c>
@@ -12773,7 +12776,7 @@
         <v>7</v>
       </c>
       <c r="J164" s="24" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K164" s="25" t="s">
         <v>122</v>
@@ -12812,7 +12815,7 @@
       <c r="AMI164"/>
       <c r="AMJ164"/>
     </row>
-    <row r="165" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:1024" s="22" customFormat="1">
       <c r="A165" s="22">
         <v>164</v>
       </c>
@@ -12841,7 +12844,7 @@
         <v>8</v>
       </c>
       <c r="J165" s="24" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K165" s="25" t="s">
         <v>122</v>
@@ -12880,7 +12883,7 @@
       <c r="AMI165"/>
       <c r="AMJ165"/>
     </row>
-    <row r="166" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:1024" s="22" customFormat="1">
       <c r="A166" s="22">
         <v>165</v>
       </c>
@@ -12909,7 +12912,7 @@
         <v>8</v>
       </c>
       <c r="J166" s="24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K166" s="25" t="s">
         <v>122</v>
@@ -12948,7 +12951,7 @@
       <c r="AMI166"/>
       <c r="AMJ166"/>
     </row>
-    <row r="167" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:1024" s="22" customFormat="1">
       <c r="A167" s="22">
         <v>166</v>
       </c>
@@ -12977,7 +12980,7 @@
         <v>8</v>
       </c>
       <c r="J167" s="24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K167" s="25" t="s">
         <v>122</v>
@@ -13016,7 +13019,7 @@
       <c r="AMI167"/>
       <c r="AMJ167"/>
     </row>
-    <row r="168" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:1024" s="22" customFormat="1">
       <c r="A168" s="22">
         <v>167</v>
       </c>
@@ -13045,7 +13048,7 @@
         <v>8</v>
       </c>
       <c r="J168" s="24" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K168" s="25" t="s">
         <v>122</v>
@@ -13084,7 +13087,7 @@
       <c r="AMI168"/>
       <c r="AMJ168"/>
     </row>
-    <row r="169" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:1024" s="22" customFormat="1">
       <c r="A169" s="22">
         <v>168</v>
       </c>
@@ -13113,7 +13116,7 @@
         <v>8</v>
       </c>
       <c r="J169" s="24" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K169" s="25" t="s">
         <v>122</v>
@@ -13152,7 +13155,7 @@
       <c r="AMI169"/>
       <c r="AMJ169"/>
     </row>
-    <row r="170" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:1024" s="22" customFormat="1">
       <c r="A170" s="22">
         <v>169</v>
       </c>
@@ -13181,7 +13184,7 @@
         <v>8</v>
       </c>
       <c r="J170" s="24" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K170" s="25" t="s">
         <v>122</v>
@@ -13220,7 +13223,7 @@
       <c r="AMI170"/>
       <c r="AMJ170"/>
     </row>
-    <row r="171" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:1024" s="22" customFormat="1">
       <c r="A171" s="22">
         <v>170</v>
       </c>
@@ -13249,7 +13252,7 @@
         <v>8</v>
       </c>
       <c r="J171" s="24" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K171" s="25" t="s">
         <v>122</v>
@@ -13288,7 +13291,7 @@
       <c r="AMI171"/>
       <c r="AMJ171"/>
     </row>
-    <row r="172" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:1024" s="22" customFormat="1">
       <c r="A172" s="22">
         <v>171</v>
       </c>
@@ -13317,7 +13320,7 @@
         <v>8</v>
       </c>
       <c r="J172" s="24" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K172" s="25" t="s">
         <v>122</v>
@@ -13356,7 +13359,7 @@
       <c r="AMI172"/>
       <c r="AMJ172"/>
     </row>
-    <row r="173" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:1024" s="22" customFormat="1">
       <c r="A173" s="22">
         <v>172</v>
       </c>
@@ -13385,7 +13388,7 @@
         <v>8</v>
       </c>
       <c r="J173" s="24" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K173" s="25" t="s">
         <v>122</v>
@@ -13424,7 +13427,7 @@
       <c r="AMI173"/>
       <c r="AMJ173"/>
     </row>
-    <row r="174" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:1024" s="22" customFormat="1">
       <c r="A174" s="22">
         <v>173</v>
       </c>
@@ -13492,7 +13495,7 @@
       <c r="AMI174"/>
       <c r="AMJ174"/>
     </row>
-    <row r="175" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:1024" s="22" customFormat="1">
       <c r="A175" s="22">
         <v>174</v>
       </c>
@@ -13521,7 +13524,7 @@
         <v>8</v>
       </c>
       <c r="J175" s="24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K175" s="25" t="s">
         <v>122</v>
@@ -13560,7 +13563,7 @@
       <c r="AMI175"/>
       <c r="AMJ175"/>
     </row>
-    <row r="176" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:1024" s="22" customFormat="1">
       <c r="A176" s="22">
         <v>175</v>
       </c>
@@ -13589,7 +13592,7 @@
         <v>8</v>
       </c>
       <c r="J176" s="24" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K176" s="25" t="s">
         <v>122</v>
@@ -13630,7 +13633,7 @@
       <c r="AMI176"/>
       <c r="AMJ176"/>
     </row>
-    <row r="177" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:1024" s="22" customFormat="1">
       <c r="A177" s="22">
         <v>176</v>
       </c>
@@ -13659,7 +13662,7 @@
         <v>8</v>
       </c>
       <c r="J177" s="24" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K177" s="25" t="s">
         <v>122</v>
@@ -13698,7 +13701,7 @@
       <c r="AMI177"/>
       <c r="AMJ177"/>
     </row>
-    <row r="178" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:1024" s="22" customFormat="1">
       <c r="A178" s="22">
         <v>177</v>
       </c>
@@ -13766,7 +13769,7 @@
       <c r="AMI178"/>
       <c r="AMJ178"/>
     </row>
-    <row r="179" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:1024" s="22" customFormat="1">
       <c r="A179" s="22">
         <v>178</v>
       </c>
@@ -13795,7 +13798,7 @@
         <v>8</v>
       </c>
       <c r="J179" s="24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K179" s="25" t="s">
         <v>122</v>
@@ -13834,7 +13837,7 @@
       <c r="AMI179"/>
       <c r="AMJ179"/>
     </row>
-    <row r="180" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:1024" s="22" customFormat="1">
       <c r="A180" s="22">
         <v>179</v>
       </c>
@@ -13902,7 +13905,7 @@
       <c r="AMI180"/>
       <c r="AMJ180"/>
     </row>
-    <row r="181" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:1024" s="22" customFormat="1">
       <c r="A181" s="22">
         <v>180</v>
       </c>
@@ -13931,7 +13934,7 @@
         <v>8</v>
       </c>
       <c r="J181" s="24" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K181" s="25" t="s">
         <v>122</v>
@@ -13970,7 +13973,7 @@
       <c r="AMI181"/>
       <c r="AMJ181"/>
     </row>
-    <row r="182" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:1024" s="22" customFormat="1">
       <c r="A182" s="22">
         <v>181</v>
       </c>
@@ -13999,7 +14002,7 @@
         <v>8</v>
       </c>
       <c r="J182" s="24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K182" s="25" t="s">
         <v>122</v>
@@ -14038,7 +14041,7 @@
       <c r="AMI182"/>
       <c r="AMJ182"/>
     </row>
-    <row r="183" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:1024" s="22" customFormat="1">
       <c r="A183" s="22">
         <v>182</v>
       </c>
@@ -14067,7 +14070,7 @@
         <v>8</v>
       </c>
       <c r="J183" s="24" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K183" s="25" t="s">
         <v>122</v>
@@ -14106,7 +14109,7 @@
       <c r="AMI183"/>
       <c r="AMJ183"/>
     </row>
-    <row r="184" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:1024" s="22" customFormat="1">
       <c r="A184" s="22">
         <v>183</v>
       </c>
@@ -14135,7 +14138,7 @@
         <v>8</v>
       </c>
       <c r="J184" s="24" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K184" s="25" t="s">
         <v>122</v>
@@ -14174,7 +14177,7 @@
       <c r="AMI184"/>
       <c r="AMJ184"/>
     </row>
-    <row r="185" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:1024" s="22" customFormat="1">
       <c r="A185" s="22">
         <v>184</v>
       </c>
@@ -14203,7 +14206,7 @@
         <v>8</v>
       </c>
       <c r="J185" s="24" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K185" s="25" t="s">
         <v>122</v>
@@ -14242,7 +14245,7 @@
       <c r="AMI185"/>
       <c r="AMJ185"/>
     </row>
-    <row r="186" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:1024" s="22" customFormat="1">
       <c r="A186" s="22">
         <v>185</v>
       </c>
@@ -14271,7 +14274,7 @@
         <v>8</v>
       </c>
       <c r="J186" s="24" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K186" s="25" t="s">
         <v>122</v>
@@ -14280,7 +14283,7 @@
         <v>50</v>
       </c>
       <c r="M186" s="27" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N186" s="28">
         <v>24</v>
@@ -14310,7 +14313,7 @@
       <c r="AMI186"/>
       <c r="AMJ186"/>
     </row>
-    <row r="187" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:1024" s="22" customFormat="1">
       <c r="A187" s="22">
         <v>186</v>
       </c>
@@ -14378,7 +14381,7 @@
       <c r="AMI187"/>
       <c r="AMJ187"/>
     </row>
-    <row r="188" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:1024" s="22" customFormat="1">
       <c r="A188" s="22">
         <v>187</v>
       </c>
@@ -14446,7 +14449,7 @@
       <c r="AMI188"/>
       <c r="AMJ188"/>
     </row>
-    <row r="189" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:1024" s="22" customFormat="1">
       <c r="A189" s="22">
         <v>188</v>
       </c>
@@ -14475,7 +14478,7 @@
         <v>8</v>
       </c>
       <c r="J189" s="24" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K189" s="25" t="s">
         <v>122</v>
@@ -14514,7 +14517,7 @@
       <c r="AMI189"/>
       <c r="AMJ189"/>
     </row>
-    <row r="190" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:1024" s="22" customFormat="1">
       <c r="A190" s="22">
         <v>189</v>
       </c>
@@ -14543,7 +14546,7 @@
         <v>8</v>
       </c>
       <c r="J190" s="24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K190" s="25" t="s">
         <v>122</v>
@@ -14582,7 +14585,7 @@
       <c r="AMI190"/>
       <c r="AMJ190"/>
     </row>
-    <row r="191" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:1024" s="22" customFormat="1">
       <c r="A191" s="22">
         <v>190</v>
       </c>
@@ -14611,7 +14614,7 @@
         <v>8</v>
       </c>
       <c r="J191" s="24" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K191" s="25" t="s">
         <v>122</v>
@@ -14650,7 +14653,7 @@
       <c r="AMI191"/>
       <c r="AMJ191"/>
     </row>
-    <row r="192" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:1024" s="22" customFormat="1">
       <c r="A192" s="22">
         <v>191</v>
       </c>
@@ -14679,7 +14682,7 @@
         <v>9</v>
       </c>
       <c r="J192" s="24" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K192" s="25" t="s">
         <v>122</v>
@@ -14688,7 +14691,7 @@
         <v>60</v>
       </c>
       <c r="M192" s="27" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="N192" s="28">
         <v>100</v>
@@ -14718,7 +14721,7 @@
       <c r="AMI192"/>
       <c r="AMJ192"/>
     </row>
-    <row r="193" spans="1:1024" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:1024" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A193" s="22">
         <v>192</v>
       </c>
@@ -14747,7 +14750,7 @@
         <v>9</v>
       </c>
       <c r="J193" s="24" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K193" s="25" t="s">
         <v>122</v>
@@ -14756,7 +14759,7 @@
         <v>60</v>
       </c>
       <c r="M193" s="27" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="N193" s="28">
         <v>50</v>
@@ -14786,7 +14789,7 @@
       <c r="AMI193"/>
       <c r="AMJ193"/>
     </row>
-    <row r="194" spans="1:1024" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:1024" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A194" s="22">
         <v>193</v>
       </c>
@@ -14815,7 +14818,7 @@
         <v>9</v>
       </c>
       <c r="J194" s="24" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K194" s="25" t="s">
         <v>122</v>
@@ -14854,7 +14857,7 @@
       <c r="AMI194"/>
       <c r="AMJ194"/>
     </row>
-    <row r="195" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:1024" s="22" customFormat="1">
       <c r="A195" s="22">
         <v>194</v>
       </c>
@@ -14883,7 +14886,7 @@
         <v>9</v>
       </c>
       <c r="J195" s="24" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K195" s="25" t="s">
         <v>122</v>
@@ -14922,7 +14925,7 @@
       <c r="AMI195"/>
       <c r="AMJ195"/>
     </row>
-    <row r="196" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:1024" s="22" customFormat="1">
       <c r="A196" s="22">
         <v>195</v>
       </c>
@@ -14951,7 +14954,7 @@
         <v>9</v>
       </c>
       <c r="J196" s="24" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K196" s="25" t="s">
         <v>122</v>
@@ -14992,7 +14995,7 @@
       <c r="AMI196"/>
       <c r="AMJ196"/>
     </row>
-    <row r="197" spans="1:1024" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:1024" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A197" s="22">
         <v>196</v>
       </c>
@@ -15021,7 +15024,7 @@
         <v>9</v>
       </c>
       <c r="J197" s="24" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K197" s="25" t="s">
         <v>122</v>
@@ -15060,7 +15063,7 @@
       <c r="AMI197"/>
       <c r="AMJ197"/>
     </row>
-    <row r="198" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:1024" s="22" customFormat="1">
       <c r="A198" s="22">
         <v>197</v>
       </c>
@@ -15089,7 +15092,7 @@
         <v>9</v>
       </c>
       <c r="J198" s="24" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K198" s="25" t="s">
         <v>122</v>
@@ -15128,7 +15131,7 @@
       <c r="AMI198"/>
       <c r="AMJ198"/>
     </row>
-    <row r="199" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:1024" s="22" customFormat="1">
       <c r="A199" s="22">
         <v>198</v>
       </c>
@@ -15157,7 +15160,7 @@
         <v>9</v>
       </c>
       <c r="J199" s="24" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K199" s="25" t="s">
         <v>122</v>
@@ -15196,7 +15199,7 @@
       <c r="AMI199"/>
       <c r="AMJ199"/>
     </row>
-    <row r="200" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:1024" s="22" customFormat="1">
       <c r="A200" s="22">
         <v>199</v>
       </c>
@@ -15225,7 +15228,7 @@
         <v>9</v>
       </c>
       <c r="J200" s="24" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K200" s="25" t="s">
         <v>122</v>
@@ -15264,7 +15267,7 @@
       <c r="AMI200"/>
       <c r="AMJ200"/>
     </row>
-    <row r="201" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:1024" s="22" customFormat="1">
       <c r="A201" s="22">
         <v>200</v>
       </c>
@@ -15293,7 +15296,7 @@
         <v>9</v>
       </c>
       <c r="J201" s="24" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K201" s="25" t="s">
         <v>122</v>
@@ -15332,7 +15335,7 @@
       <c r="AMI201"/>
       <c r="AMJ201"/>
     </row>
-    <row r="202" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:1024" s="22" customFormat="1">
       <c r="A202" s="22">
         <v>201</v>
       </c>
@@ -15361,7 +15364,7 @@
         <v>9</v>
       </c>
       <c r="J202" s="24" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K202" s="25" t="s">
         <v>122</v>
@@ -15400,7 +15403,7 @@
       <c r="AMI202"/>
       <c r="AMJ202"/>
     </row>
-    <row r="203" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:1024" s="22" customFormat="1">
       <c r="A203" s="22">
         <v>202</v>
       </c>
@@ -15429,7 +15432,7 @@
         <v>9</v>
       </c>
       <c r="J203" s="24" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K203" s="25" t="s">
         <v>122</v>
@@ -15468,7 +15471,7 @@
       <c r="AMI203"/>
       <c r="AMJ203"/>
     </row>
-    <row r="204" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:1024" s="22" customFormat="1">
       <c r="A204" s="22">
         <v>203</v>
       </c>
@@ -15497,7 +15500,7 @@
         <v>9</v>
       </c>
       <c r="J204" s="24" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K204" s="25" t="s">
         <v>122</v>
@@ -15506,7 +15509,7 @@
         <v>428</v>
       </c>
       <c r="M204" s="27" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N204" s="28">
         <v>12</v>
@@ -15536,7 +15539,7 @@
       <c r="AMI204"/>
       <c r="AMJ204"/>
     </row>
-    <row r="205" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:1024" s="22" customFormat="1">
       <c r="A205" s="22">
         <v>204</v>
       </c>
@@ -15565,7 +15568,7 @@
         <v>9</v>
       </c>
       <c r="J205" s="24" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K205" s="25" t="s">
         <v>122</v>
@@ -15604,7 +15607,7 @@
       <c r="AMI205"/>
       <c r="AMJ205"/>
     </row>
-    <row r="206" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:1024" s="22" customFormat="1">
       <c r="A206" s="22">
         <v>205</v>
       </c>
@@ -15633,7 +15636,7 @@
         <v>9</v>
       </c>
       <c r="J206" s="24" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K206" s="25" t="s">
         <v>122</v>
@@ -15672,7 +15675,7 @@
       <c r="AMI206"/>
       <c r="AMJ206"/>
     </row>
-    <row r="207" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:1024" s="22" customFormat="1">
       <c r="A207" s="22">
         <v>206</v>
       </c>
@@ -15701,7 +15704,7 @@
         <v>9</v>
       </c>
       <c r="J207" s="24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K207" s="25" t="s">
         <v>122</v>
@@ -15740,7 +15743,7 @@
       <c r="AMI207"/>
       <c r="AMJ207"/>
     </row>
-    <row r="208" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:1024" s="22" customFormat="1">
       <c r="A208" s="22">
         <v>207</v>
       </c>
@@ -15769,7 +15772,7 @@
         <v>9</v>
       </c>
       <c r="J208" s="24" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K208" s="25" t="s">
         <v>122</v>
@@ -15778,7 +15781,7 @@
         <v>1084</v>
       </c>
       <c r="M208" s="27" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="N208" s="28"/>
       <c r="O208" s="28">
@@ -15808,7 +15811,7 @@
       <c r="AMI208"/>
       <c r="AMJ208"/>
     </row>
-    <row r="209" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:1024" s="22" customFormat="1">
       <c r="A209" s="22">
         <v>208</v>
       </c>
@@ -15846,7 +15849,7 @@
         <v>200</v>
       </c>
       <c r="M209" s="27" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="N209" s="28">
         <v>3</v>
@@ -15878,7 +15881,7 @@
       <c r="AMI209"/>
       <c r="AMJ209"/>
     </row>
-    <row r="210" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:1024" s="22" customFormat="1">
       <c r="A210" s="22">
         <v>209</v>
       </c>
@@ -15916,7 +15919,7 @@
         <v>555</v>
       </c>
       <c r="M210" s="27" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="N210" s="28"/>
       <c r="O210" s="28">
@@ -15946,7 +15949,7 @@
       <c r="AMI210"/>
       <c r="AMJ210"/>
     </row>
-    <row r="211" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:1024" s="22" customFormat="1">
       <c r="A211" s="22">
         <v>210</v>
       </c>
@@ -15975,7 +15978,7 @@
         <v>9</v>
       </c>
       <c r="J211" s="24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K211" s="25" t="s">
         <v>122</v>
@@ -16014,7 +16017,7 @@
       <c r="AMI211"/>
       <c r="AMJ211"/>
     </row>
-    <row r="212" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:1024" s="22" customFormat="1">
       <c r="A212" s="22">
         <v>211</v>
       </c>
@@ -16043,7 +16046,7 @@
         <v>9</v>
       </c>
       <c r="J212" s="24" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K212" s="25" t="s">
         <v>122</v>
@@ -16082,7 +16085,7 @@
       <c r="AMI212"/>
       <c r="AMJ212"/>
     </row>
-    <row r="213" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:1024" s="22" customFormat="1">
       <c r="A213" s="22">
         <v>212</v>
       </c>
@@ -16111,7 +16114,7 @@
         <v>9</v>
       </c>
       <c r="J213" s="24" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K213" s="25" t="s">
         <v>122</v>
@@ -16150,7 +16153,7 @@
       <c r="AMI213"/>
       <c r="AMJ213"/>
     </row>
-    <row r="214" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:1024" s="22" customFormat="1">
       <c r="A214" s="22">
         <v>213</v>
       </c>
@@ -16179,7 +16182,7 @@
         <v>9</v>
       </c>
       <c r="J214" s="24" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K214" s="25" t="s">
         <v>122</v>
@@ -16218,7 +16221,7 @@
       <c r="AMI214"/>
       <c r="AMJ214"/>
     </row>
-    <row r="215" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:1024" s="22" customFormat="1">
       <c r="A215" s="22">
         <v>214</v>
       </c>
@@ -16247,7 +16250,7 @@
         <v>9</v>
       </c>
       <c r="J215" s="24" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K215" s="25" t="s">
         <v>122</v>
@@ -16286,7 +16289,7 @@
       <c r="AMI215"/>
       <c r="AMJ215"/>
     </row>
-    <row r="216" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:1024" s="22" customFormat="1">
       <c r="A216" s="22">
         <v>215</v>
       </c>
@@ -16315,7 +16318,7 @@
         <v>9</v>
       </c>
       <c r="J216" s="24" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K216" s="25" t="s">
         <v>122</v>
@@ -16354,7 +16357,7 @@
       <c r="AMI216"/>
       <c r="AMJ216"/>
     </row>
-    <row r="217" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:1024" s="22" customFormat="1">
       <c r="A217" s="22">
         <v>216</v>
       </c>
@@ -16383,7 +16386,7 @@
         <v>10</v>
       </c>
       <c r="J217" s="24" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K217" s="25" t="s">
         <v>122</v>
@@ -16422,7 +16425,7 @@
       <c r="AMI217"/>
       <c r="AMJ217"/>
     </row>
-    <row r="218" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:1024" s="22" customFormat="1">
       <c r="A218" s="22">
         <v>217</v>
       </c>
@@ -16451,7 +16454,7 @@
         <v>10</v>
       </c>
       <c r="J218" s="24" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K218" s="25" t="s">
         <v>122</v>
@@ -16490,7 +16493,7 @@
       <c r="AMI218"/>
       <c r="AMJ218"/>
     </row>
-    <row r="219" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:1024" s="22" customFormat="1">
       <c r="A219" s="22">
         <v>218</v>
       </c>
@@ -16519,7 +16522,7 @@
         <v>10</v>
       </c>
       <c r="J219" s="24" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K219" s="25" t="s">
         <v>122</v>
@@ -16558,7 +16561,7 @@
       <c r="AMI219"/>
       <c r="AMJ219"/>
     </row>
-    <row r="220" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:1024" s="22" customFormat="1">
       <c r="A220" s="22">
         <v>219</v>
       </c>
@@ -16587,7 +16590,7 @@
         <v>10</v>
       </c>
       <c r="J220" s="24" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K220" s="25" t="s">
         <v>122</v>
@@ -16626,7 +16629,7 @@
       <c r="AMI220"/>
       <c r="AMJ220"/>
     </row>
-    <row r="221" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:1024" s="22" customFormat="1">
       <c r="A221" s="22">
         <v>220</v>
       </c>
@@ -16655,7 +16658,7 @@
         <v>10</v>
       </c>
       <c r="J221" s="24" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K221" s="25" t="s">
         <v>122</v>
@@ -16694,7 +16697,7 @@
       <c r="AMI221"/>
       <c r="AMJ221"/>
     </row>
-    <row r="222" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:1024" s="22" customFormat="1">
       <c r="A222" s="22">
         <v>221</v>
       </c>
@@ -16723,7 +16726,7 @@
         <v>10</v>
       </c>
       <c r="J222" s="24" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K222" s="25" t="s">
         <v>122</v>
@@ -16762,7 +16765,7 @@
       <c r="AMI222"/>
       <c r="AMJ222"/>
     </row>
-    <row r="223" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:1024" s="22" customFormat="1">
       <c r="A223" s="22">
         <v>222</v>
       </c>
@@ -16791,7 +16794,7 @@
         <v>10</v>
       </c>
       <c r="J223" s="24" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K223" s="25" t="s">
         <v>122</v>
@@ -16830,7 +16833,7 @@
       <c r="AMI223"/>
       <c r="AMJ223"/>
     </row>
-    <row r="224" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:1024" s="22" customFormat="1">
       <c r="A224" s="22">
         <v>223</v>
       </c>
@@ -16859,7 +16862,7 @@
         <v>10</v>
       </c>
       <c r="J224" s="24" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K224" s="25" t="s">
         <v>122</v>
@@ -16898,7 +16901,7 @@
       <c r="AMI224"/>
       <c r="AMJ224"/>
     </row>
-    <row r="225" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:1024" s="22" customFormat="1">
       <c r="A225" s="22">
         <v>224</v>
       </c>
@@ -16927,7 +16930,7 @@
         <v>10</v>
       </c>
       <c r="J225" s="24" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K225" s="25" t="s">
         <v>122</v>
@@ -16966,7 +16969,7 @@
       <c r="AMI225"/>
       <c r="AMJ225"/>
     </row>
-    <row r="226" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:1024" s="22" customFormat="1">
       <c r="A226" s="22">
         <v>225</v>
       </c>
@@ -17034,7 +17037,7 @@
       <c r="AMI226"/>
       <c r="AMJ226"/>
     </row>
-    <row r="227" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:1024" s="22" customFormat="1">
       <c r="A227" s="22">
         <v>226</v>
       </c>
@@ -17063,7 +17066,7 @@
         <v>10</v>
       </c>
       <c r="J227" s="24" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K227" s="25" t="s">
         <v>122</v>
@@ -17102,7 +17105,7 @@
       <c r="AMI227"/>
       <c r="AMJ227"/>
     </row>
-    <row r="228" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:1024" s="22" customFormat="1">
       <c r="A228" s="22">
         <v>227</v>
       </c>
@@ -17131,7 +17134,7 @@
         <v>10</v>
       </c>
       <c r="J228" s="24" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K228" s="25" t="s">
         <v>122</v>
@@ -17170,7 +17173,7 @@
       <c r="AMI228"/>
       <c r="AMJ228"/>
     </row>
-    <row r="229" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:1024" s="22" customFormat="1">
       <c r="A229" s="22">
         <v>228</v>
       </c>
@@ -17199,7 +17202,7 @@
         <v>10</v>
       </c>
       <c r="J229" s="24" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K229" s="25" t="s">
         <v>122</v>
@@ -17238,7 +17241,7 @@
       <c r="AMI229"/>
       <c r="AMJ229"/>
     </row>
-    <row r="230" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:1024" s="22" customFormat="1">
       <c r="A230" s="22">
         <v>229</v>
       </c>
@@ -17267,7 +17270,7 @@
         <v>10</v>
       </c>
       <c r="J230" s="24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K230" s="25" t="s">
         <v>122</v>
@@ -17306,7 +17309,7 @@
       <c r="AMI230"/>
       <c r="AMJ230"/>
     </row>
-    <row r="231" spans="1:1024" s="22" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:1024" s="22" customFormat="1" ht="13.75" customHeight="1">
       <c r="A231" s="22">
         <v>230</v>
       </c>
@@ -17335,7 +17338,7 @@
         <v>10</v>
       </c>
       <c r="J231" s="24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K231" s="25" t="s">
         <v>122</v>
@@ -17374,7 +17377,7 @@
       <c r="AMI231"/>
       <c r="AMJ231"/>
     </row>
-    <row r="232" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:1024" s="22" customFormat="1">
       <c r="A232" s="22">
         <v>231</v>
       </c>
@@ -17403,7 +17406,7 @@
         <v>10</v>
       </c>
       <c r="J232" s="24" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K232" s="25" t="s">
         <v>122</v>
@@ -17442,7 +17445,7 @@
       <c r="AMI232"/>
       <c r="AMJ232"/>
     </row>
-    <row r="233" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:1024" s="22" customFormat="1">
       <c r="A233" s="22">
         <v>232</v>
       </c>
@@ -17510,7 +17513,7 @@
       <c r="AMI233"/>
       <c r="AMJ233"/>
     </row>
-    <row r="234" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:1024" s="22" customFormat="1">
       <c r="A234" s="22">
         <v>233</v>
       </c>
@@ -17578,7 +17581,7 @@
       <c r="AMI234"/>
       <c r="AMJ234"/>
     </row>
-    <row r="235" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:1024" s="22" customFormat="1">
       <c r="A235" s="22">
         <v>234</v>
       </c>
@@ -17607,7 +17610,7 @@
         <v>10</v>
       </c>
       <c r="J235" s="24" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K235" s="25" t="s">
         <v>122</v>
@@ -17646,7 +17649,7 @@
       <c r="AMI235"/>
       <c r="AMJ235"/>
     </row>
-    <row r="236" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:1024" s="22" customFormat="1">
       <c r="A236" s="22">
         <v>235</v>
       </c>
@@ -17675,7 +17678,7 @@
         <v>10</v>
       </c>
       <c r="J236" s="24" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K236" s="25" t="s">
         <v>122</v>
@@ -17684,7 +17687,7 @@
         <v>160</v>
       </c>
       <c r="M236" s="27" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N236" s="28">
         <v>18</v>
@@ -17714,7 +17717,7 @@
       <c r="AMI236"/>
       <c r="AMJ236"/>
     </row>
-    <row r="237" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:1024" s="22" customFormat="1">
       <c r="A237" s="22">
         <v>236</v>
       </c>
@@ -17743,7 +17746,7 @@
         <v>10</v>
       </c>
       <c r="J237" s="36" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K237" s="25" t="s">
         <v>122</v>
@@ -17782,7 +17785,7 @@
       <c r="AMI237"/>
       <c r="AMJ237"/>
     </row>
-    <row r="238" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:1024" s="22" customFormat="1">
       <c r="A238" s="22">
         <v>237</v>
       </c>
@@ -17811,7 +17814,7 @@
         <v>10</v>
       </c>
       <c r="J238" s="24" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K238" s="25" t="s">
         <v>122</v>
@@ -17850,7 +17853,7 @@
       <c r="AMI238"/>
       <c r="AMJ238"/>
     </row>
-    <row r="239" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:1024" s="22" customFormat="1">
       <c r="A239" s="22">
         <v>238</v>
       </c>
@@ -17879,7 +17882,7 @@
         <v>10</v>
       </c>
       <c r="J239" s="24" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K239" s="25" t="s">
         <v>122</v>
@@ -17888,7 +17891,7 @@
         <v>256</v>
       </c>
       <c r="M239" s="27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N239" s="28"/>
       <c r="O239" s="28">
@@ -17918,7 +17921,7 @@
       <c r="AMI239"/>
       <c r="AMJ239"/>
     </row>
-    <row r="240" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:1024" s="22" customFormat="1">
       <c r="A240" s="22">
         <v>239</v>
       </c>
@@ -17947,7 +17950,7 @@
         <v>10</v>
       </c>
       <c r="J240" s="24" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K240" s="25" t="s">
         <v>122</v>
@@ -17986,7 +17989,7 @@
       <c r="AMI240"/>
       <c r="AMJ240"/>
     </row>
-    <row r="241" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:1024" s="22" customFormat="1">
       <c r="A241" s="22">
         <v>240</v>
       </c>
@@ -18015,7 +18018,7 @@
         <v>10</v>
       </c>
       <c r="J241" s="24" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K241" s="25" t="s">
         <v>122</v>
@@ -18054,7 +18057,7 @@
       <c r="AMI241"/>
       <c r="AMJ241"/>
     </row>
-    <row r="242" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:1024" s="22" customFormat="1">
       <c r="A242" s="22">
         <v>241</v>
       </c>
@@ -18083,7 +18086,7 @@
         <v>10</v>
       </c>
       <c r="J242" s="36" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K242" s="25" t="s">
         <v>122</v>
@@ -18122,7 +18125,7 @@
       <c r="AMI242"/>
       <c r="AMJ242"/>
     </row>
-    <row r="243" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:1024" s="22" customFormat="1">
       <c r="A243" s="22">
         <v>242</v>
       </c>
@@ -18151,7 +18154,7 @@
         <v>10</v>
       </c>
       <c r="J243" s="24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K243" s="25" t="s">
         <v>122</v>
@@ -18190,7 +18193,7 @@
       <c r="AMI243"/>
       <c r="AMJ243"/>
     </row>
-    <row r="244" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:1024" s="22" customFormat="1">
       <c r="A244" s="22">
         <v>243</v>
       </c>
@@ -18228,7 +18231,7 @@
         <v>1</v>
       </c>
       <c r="M244" s="27" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="N244" s="28">
         <v>30</v>
@@ -18258,7 +18261,7 @@
       <c r="AMI244"/>
       <c r="AMJ244"/>
     </row>
-    <row r="245" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:1024" s="22" customFormat="1">
       <c r="A245" s="22">
         <v>244</v>
       </c>
@@ -18287,7 +18290,7 @@
         <v>10</v>
       </c>
       <c r="J245" s="24" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K245" s="25" t="s">
         <v>122</v>
@@ -18326,7 +18329,7 @@
       <c r="AMI245"/>
       <c r="AMJ245"/>
     </row>
-    <row r="246" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:1024" s="22" customFormat="1">
       <c r="A246" s="22">
         <v>245</v>
       </c>
@@ -18358,7 +18361,7 @@
         <v>121</v>
       </c>
       <c r="K246" s="25" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L246" s="26">
         <v>38054</v>
@@ -18394,7 +18397,7 @@
       <c r="AMI246"/>
       <c r="AMJ246"/>
     </row>
-    <row r="247" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:1024" s="22" customFormat="1">
       <c r="A247" s="22">
         <v>246</v>
       </c>
@@ -18426,7 +18429,7 @@
         <v>125</v>
       </c>
       <c r="K247" s="25" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L247" s="26">
         <v>5750</v>
@@ -18462,7 +18465,7 @@
       <c r="AMI247"/>
       <c r="AMJ247"/>
     </row>
-    <row r="248" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:1024" s="22" customFormat="1">
       <c r="A248" s="22">
         <v>247</v>
       </c>
@@ -18494,7 +18497,7 @@
         <v>105</v>
       </c>
       <c r="K248" s="25" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L248" s="26">
         <v>10880</v>
@@ -18530,7 +18533,7 @@
       <c r="AMI248"/>
       <c r="AMJ248"/>
     </row>
-    <row r="249" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:1024" s="22" customFormat="1">
       <c r="A249" s="22">
         <v>248</v>
       </c>
@@ -18559,10 +18562,10 @@
         <v>11</v>
       </c>
       <c r="J249" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K249" s="25" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L249" s="26">
         <v>30548</v>
@@ -18598,7 +18601,7 @@
       <c r="AMI249"/>
       <c r="AMJ249"/>
     </row>
-    <row r="250" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:1024" s="22" customFormat="1">
       <c r="A250" s="22">
         <v>249</v>
       </c>
@@ -18627,10 +18630,10 @@
         <v>11</v>
       </c>
       <c r="J250" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K250" s="25" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L250" s="26">
         <v>25</v>
@@ -18668,7 +18671,7 @@
       <c r="AMI250"/>
       <c r="AMJ250"/>
     </row>
-    <row r="251" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:1024" s="22" customFormat="1">
       <c r="A251" s="22">
         <v>250</v>
       </c>
@@ -18697,10 +18700,10 @@
         <v>11</v>
       </c>
       <c r="J251" s="24" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K251" s="25" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L251" s="26">
         <v>380</v>
@@ -18736,7 +18739,7 @@
       <c r="AMI251"/>
       <c r="AMJ251"/>
     </row>
-    <row r="252" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:1024" s="22" customFormat="1">
       <c r="A252" s="22">
         <v>251</v>
       </c>
@@ -18765,16 +18768,16 @@
         <v>11</v>
       </c>
       <c r="J252" s="24" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K252" s="25" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L252" s="26">
         <v>400</v>
       </c>
       <c r="M252" s="27" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="N252" s="28"/>
       <c r="O252" s="28">
@@ -18804,7 +18807,7 @@
       <c r="AMI252"/>
       <c r="AMJ252"/>
     </row>
-    <row r="253" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:1024" s="22" customFormat="1">
       <c r="A253" s="22">
         <v>252</v>
       </c>
@@ -18833,16 +18836,16 @@
         <v>11</v>
       </c>
       <c r="J253" s="24" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K253" s="25" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L253" s="26">
         <v>3</v>
       </c>
       <c r="M253" s="27" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="N253" s="28"/>
       <c r="O253" s="28">
@@ -18872,7 +18875,7 @@
       <c r="AMI253"/>
       <c r="AMJ253"/>
     </row>
-    <row r="254" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:1024" s="22" customFormat="1">
       <c r="A254" s="22">
         <v>253</v>
       </c>
@@ -18904,7 +18907,7 @@
         <v>38</v>
       </c>
       <c r="K254" s="25" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L254" s="26">
         <v>10</v>
@@ -18940,7 +18943,7 @@
       <c r="AMI254"/>
       <c r="AMJ254"/>
     </row>
-    <row r="255" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:1024" s="22" customFormat="1">
       <c r="A255" s="22">
         <v>254</v>
       </c>
@@ -18969,10 +18972,10 @@
         <v>11</v>
       </c>
       <c r="J255" s="24" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K255" s="25" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L255" s="26">
         <v>960</v>
@@ -19008,7 +19011,7 @@
       <c r="AMI255"/>
       <c r="AMJ255"/>
     </row>
-    <row r="256" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:1024" s="22" customFormat="1">
       <c r="A256" s="22">
         <v>255</v>
       </c>
@@ -19037,10 +19040,10 @@
         <v>11</v>
       </c>
       <c r="J256" s="24" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K256" s="25" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L256" s="26">
         <v>821</v>
@@ -19076,7 +19079,7 @@
       <c r="AMI256"/>
       <c r="AMJ256"/>
     </row>
-    <row r="257" spans="1:1024" s="22" customFormat="1" ht="16.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:1024" s="22" customFormat="1" ht="16.75" customHeight="1">
       <c r="A257" s="22">
         <v>256</v>
       </c>
@@ -19105,10 +19108,10 @@
         <v>11</v>
       </c>
       <c r="J257" s="24" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K257" s="25" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L257" s="26">
         <v>39</v>
@@ -19144,7 +19147,7 @@
       <c r="AMI257"/>
       <c r="AMJ257"/>
     </row>
-    <row r="258" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:1024" s="22" customFormat="1">
       <c r="A258" s="22">
         <v>257</v>
       </c>
@@ -19173,10 +19176,10 @@
         <v>11</v>
       </c>
       <c r="J258" s="24" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K258" s="25" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L258" s="26">
         <v>223</v>
@@ -19190,7 +19193,7 @@
       </c>
       <c r="P258" s="29"/>
       <c r="Q258" s="30">
-        <f t="shared" ref="Q258:Q321" si="8">N258+(0.05*O258)+(P258/240)</f>
+        <f t="shared" ref="Q258:Q317" si="8">N258+(0.05*O258)+(P258/240)</f>
         <v>0.30000000000000004</v>
       </c>
       <c r="R258" s="29"/>
@@ -19212,7 +19215,7 @@
       <c r="AMI258"/>
       <c r="AMJ258"/>
     </row>
-    <row r="259" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:1024" s="22" customFormat="1">
       <c r="A259" s="22">
         <v>258</v>
       </c>
@@ -19241,10 +19244,10 @@
         <v>11</v>
       </c>
       <c r="J259" s="24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K259" s="25" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L259" s="26">
         <v>4802</v>
@@ -19280,7 +19283,7 @@
       <c r="AMI259"/>
       <c r="AMJ259"/>
     </row>
-    <row r="260" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:1024" s="22" customFormat="1">
       <c r="A260" s="22">
         <v>259</v>
       </c>
@@ -19309,10 +19312,10 @@
         <v>11</v>
       </c>
       <c r="J260" s="24" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K260" s="25" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L260" s="26">
         <v>17826</v>
@@ -19348,7 +19351,7 @@
       <c r="AMI260"/>
       <c r="AMJ260"/>
     </row>
-    <row r="261" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:1024" s="22" customFormat="1">
       <c r="A261" s="22">
         <v>260</v>
       </c>
@@ -19377,10 +19380,10 @@
         <v>11</v>
       </c>
       <c r="J261" s="24" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K261" s="25" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L261" s="26">
         <v>71351</v>
@@ -19416,7 +19419,7 @@
       <c r="AMI261"/>
       <c r="AMJ261"/>
     </row>
-    <row r="262" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:1024" s="22" customFormat="1">
       <c r="A262" s="22">
         <v>261</v>
       </c>
@@ -19445,10 +19448,10 @@
         <v>11</v>
       </c>
       <c r="J262" s="24" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K262" s="25" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L262" s="26">
         <v>121</v>
@@ -19484,7 +19487,7 @@
       <c r="AMI262"/>
       <c r="AMJ262"/>
     </row>
-    <row r="263" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:1024" s="22" customFormat="1">
       <c r="A263" s="22">
         <v>262</v>
       </c>
@@ -19513,10 +19516,10 @@
         <v>11</v>
       </c>
       <c r="J263" s="24" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K263" s="25" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L263" s="26">
         <v>10</v>
@@ -19552,7 +19555,7 @@
       <c r="AMI263"/>
       <c r="AMJ263"/>
     </row>
-    <row r="264" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:1024" s="22" customFormat="1">
       <c r="A264" s="22">
         <v>263</v>
       </c>
@@ -19581,10 +19584,10 @@
         <v>11</v>
       </c>
       <c r="J264" s="24" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K264" s="25" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L264" s="26">
         <v>1210</v>
@@ -19620,7 +19623,7 @@
       <c r="AMI264"/>
       <c r="AMJ264"/>
     </row>
-    <row r="265" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:1024" s="22" customFormat="1">
       <c r="A265" s="22">
         <v>264</v>
       </c>
@@ -19649,10 +19652,10 @@
         <v>11</v>
       </c>
       <c r="J265" s="24" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K265" s="25" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L265" s="26">
         <v>169</v>
@@ -19688,7 +19691,7 @@
       <c r="AMI265"/>
       <c r="AMJ265"/>
     </row>
-    <row r="266" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:1024" s="22" customFormat="1">
       <c r="A266" s="22">
         <v>265</v>
       </c>
@@ -19717,10 +19720,10 @@
         <v>11</v>
       </c>
       <c r="J266" s="24" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K266" s="25" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L266" s="26">
         <v>5</v>
@@ -19756,7 +19759,7 @@
       <c r="AMI266"/>
       <c r="AMJ266"/>
     </row>
-    <row r="267" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:1024" s="22" customFormat="1">
       <c r="A267" s="22">
         <v>266</v>
       </c>
@@ -19785,10 +19788,10 @@
         <v>11</v>
       </c>
       <c r="J267" s="24" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K267" s="25" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L267" s="26">
         <v>4406</v>
@@ -19826,7 +19829,7 @@
       <c r="AMI267"/>
       <c r="AMJ267"/>
     </row>
-    <row r="268" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:1024" s="22" customFormat="1">
       <c r="A268" s="22">
         <v>267</v>
       </c>
@@ -19858,7 +19861,7 @@
         <v>45</v>
       </c>
       <c r="K268" s="25" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L268" s="26">
         <v>1529</v>
@@ -19894,7 +19897,7 @@
       <c r="AMI268"/>
       <c r="AMJ268"/>
     </row>
-    <row r="269" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:1024" s="22" customFormat="1">
       <c r="A269" s="22">
         <v>268</v>
       </c>
@@ -19923,10 +19926,10 @@
         <v>11</v>
       </c>
       <c r="J269" s="24" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K269" s="25" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L269" s="26">
         <v>449</v>
@@ -19962,7 +19965,7 @@
       <c r="AMI269"/>
       <c r="AMJ269"/>
     </row>
-    <row r="270" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:1024" s="22" customFormat="1">
       <c r="A270" s="22">
         <v>269</v>
       </c>
@@ -19991,10 +19994,10 @@
         <v>11</v>
       </c>
       <c r="J270" s="24" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K270" s="25" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L270" s="26">
         <v>6</v>
@@ -20030,7 +20033,7 @@
       <c r="AMI270"/>
       <c r="AMJ270"/>
     </row>
-    <row r="271" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:1024" s="22" customFormat="1">
       <c r="A271" s="22">
         <v>270</v>
       </c>
@@ -20059,10 +20062,10 @@
         <v>11</v>
       </c>
       <c r="J271" s="24" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K271" s="25" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L271" s="26">
         <v>1742</v>
@@ -20098,7 +20101,7 @@
       <c r="AMI271"/>
       <c r="AMJ271"/>
     </row>
-    <row r="272" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:1024" s="22" customFormat="1">
       <c r="A272" s="22">
         <v>271</v>
       </c>
@@ -20127,10 +20130,10 @@
         <v>11</v>
       </c>
       <c r="J272" s="24" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K272" s="25" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L272" s="26">
         <v>219</v>
@@ -20166,7 +20169,7 @@
       <c r="AMI272"/>
       <c r="AMJ272"/>
     </row>
-    <row r="273" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:1024" s="22" customFormat="1">
       <c r="A273" s="22">
         <v>272</v>
       </c>
@@ -20198,7 +20201,7 @@
         <v>98</v>
       </c>
       <c r="K273" s="25" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L273" s="26">
         <v>6</v>
@@ -20234,7 +20237,7 @@
       <c r="AMI273"/>
       <c r="AMJ273"/>
     </row>
-    <row r="274" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:1024" s="22" customFormat="1">
       <c r="A274" s="22">
         <v>273</v>
       </c>
@@ -20266,7 +20269,7 @@
         <v>52</v>
       </c>
       <c r="K274" s="25" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L274" s="26">
         <v>6935</v>
@@ -20302,7 +20305,7 @@
       <c r="AMI274"/>
       <c r="AMJ274"/>
     </row>
-    <row r="275" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:1024" s="22" customFormat="1">
       <c r="A275" s="22">
         <v>274</v>
       </c>
@@ -20331,10 +20334,10 @@
         <v>11</v>
       </c>
       <c r="J275" s="24" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K275" s="25" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L275" s="26">
         <v>193</v>
@@ -20370,7 +20373,7 @@
       <c r="AMI275"/>
       <c r="AMJ275"/>
     </row>
-    <row r="276" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:1024" s="22" customFormat="1">
       <c r="A276" s="22">
         <v>275</v>
       </c>
@@ -20399,10 +20402,10 @@
         <v>12</v>
       </c>
       <c r="J276" s="24" t="s">
+        <v>281</v>
+      </c>
+      <c r="K276" s="25" t="s">
         <v>282</v>
-      </c>
-      <c r="K276" s="25" t="s">
-        <v>283</v>
       </c>
       <c r="L276" s="26">
         <v>54594</v>
@@ -20438,7 +20441,7 @@
       <c r="AMI276"/>
       <c r="AMJ276"/>
     </row>
-    <row r="277" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:1024" s="22" customFormat="1">
       <c r="A277" s="22">
         <v>276</v>
       </c>
@@ -20467,10 +20470,10 @@
         <v>12</v>
       </c>
       <c r="J277" s="24" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K277" s="25" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L277" s="26">
         <v>24258</v>
@@ -20506,7 +20509,7 @@
       <c r="AMI277"/>
       <c r="AMJ277"/>
     </row>
-    <row r="278" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:1024" s="22" customFormat="1">
       <c r="A278" s="22">
         <v>277</v>
       </c>
@@ -20535,10 +20538,10 @@
         <v>12</v>
       </c>
       <c r="J278" s="24" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K278" s="25" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L278" s="26">
         <v>51</v>
@@ -20574,7 +20577,7 @@
       <c r="AMI278"/>
       <c r="AMJ278"/>
     </row>
-    <row r="279" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:1024" s="22" customFormat="1">
       <c r="A279" s="22">
         <v>278</v>
       </c>
@@ -20603,10 +20606,10 @@
         <v>12</v>
       </c>
       <c r="J279" s="24" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K279" s="25" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L279" s="26">
         <v>240000</v>
@@ -20642,7 +20645,7 @@
       <c r="AMI279"/>
       <c r="AMJ279"/>
     </row>
-    <row r="280" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:1024" s="22" customFormat="1">
       <c r="A280" s="22">
         <v>279</v>
       </c>
@@ -20671,10 +20674,10 @@
         <v>12</v>
       </c>
       <c r="J280" s="24" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="K280" s="25" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L280" s="26">
         <v>1008</v>
@@ -20710,7 +20713,7 @@
       <c r="AMI280"/>
       <c r="AMJ280"/>
     </row>
-    <row r="281" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:1024" s="22" customFormat="1">
       <c r="A281" s="22">
         <v>280</v>
       </c>
@@ -20739,16 +20742,16 @@
         <v>12</v>
       </c>
       <c r="J281" s="24" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="K281" s="25" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L281" s="26">
         <v>3408</v>
       </c>
       <c r="M281" s="27" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N281" s="28">
         <v>30</v>
@@ -20778,7 +20781,7 @@
       <c r="AMI281"/>
       <c r="AMJ281"/>
     </row>
-    <row r="282" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:1024" s="22" customFormat="1">
       <c r="A282" s="22">
         <v>281</v>
       </c>
@@ -20807,16 +20810,16 @@
         <v>12</v>
       </c>
       <c r="J282" s="24" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K282" s="25" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L282" s="26">
         <v>212</v>
       </c>
       <c r="M282" s="27" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N282" s="28">
         <v>8</v>
@@ -20846,7 +20849,7 @@
       <c r="AMI282"/>
       <c r="AMJ282"/>
     </row>
-    <row r="283" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:1024" s="22" customFormat="1">
       <c r="A283" s="22">
         <v>282</v>
       </c>
@@ -20878,7 +20881,7 @@
         <v>85</v>
       </c>
       <c r="K283" s="25" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L283" s="26">
         <v>720</v>
@@ -20914,7 +20917,7 @@
       <c r="AMI283"/>
       <c r="AMJ283"/>
     </row>
-    <row r="284" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:1024" s="22" customFormat="1">
       <c r="A284" s="22">
         <v>283</v>
       </c>
@@ -20946,7 +20949,7 @@
         <v>43</v>
       </c>
       <c r="K284" s="25" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L284" s="26">
         <v>117222</v>
@@ -20982,7 +20985,7 @@
       <c r="AMI284"/>
       <c r="AMJ284"/>
     </row>
-    <row r="285" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:1024" s="22" customFormat="1">
       <c r="A285" s="22">
         <v>284</v>
       </c>
@@ -21011,10 +21014,10 @@
         <v>12</v>
       </c>
       <c r="J285" s="24" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K285" s="25" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L285" s="26">
         <v>37</v>
@@ -21050,7 +21053,7 @@
       <c r="AMI285"/>
       <c r="AMJ285"/>
     </row>
-    <row r="286" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:1024" s="22" customFormat="1">
       <c r="A286" s="22">
         <v>285</v>
       </c>
@@ -21079,16 +21082,16 @@
         <v>12</v>
       </c>
       <c r="J286" s="24" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K286" s="25" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L286" s="26">
         <v>176</v>
       </c>
       <c r="M286" s="27" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N286" s="28">
         <v>25</v>
@@ -21118,7 +21121,7 @@
       <c r="AMI286"/>
       <c r="AMJ286"/>
     </row>
-    <row r="287" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:1024" s="22" customFormat="1">
       <c r="A287" s="22">
         <v>286</v>
       </c>
@@ -21150,7 +21153,7 @@
         <v>91</v>
       </c>
       <c r="K287" s="25" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L287" s="26">
         <v>146</v>
@@ -21186,7 +21189,7 @@
       <c r="AMI287"/>
       <c r="AMJ287"/>
     </row>
-    <row r="288" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:1024" s="22" customFormat="1">
       <c r="A288" s="22">
         <v>287</v>
       </c>
@@ -21215,10 +21218,10 @@
         <v>12</v>
       </c>
       <c r="J288" s="24" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K288" s="25" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L288" s="26">
         <v>6</v>
@@ -21254,7 +21257,7 @@
       <c r="AMI288"/>
       <c r="AMJ288"/>
     </row>
-    <row r="289" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:1024" s="22" customFormat="1">
       <c r="A289" s="22">
         <v>288</v>
       </c>
@@ -21283,16 +21286,16 @@
         <v>12</v>
       </c>
       <c r="J289" s="24" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K289" s="25" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L289" s="26">
         <v>165</v>
       </c>
       <c r="M289" s="27" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N289" s="28">
         <v>3</v>
@@ -21324,7 +21327,7 @@
       <c r="AMI289"/>
       <c r="AMJ289"/>
     </row>
-    <row r="290" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:1024" s="22" customFormat="1">
       <c r="A290" s="22">
         <v>289</v>
       </c>
@@ -21356,7 +21359,7 @@
         <v>100</v>
       </c>
       <c r="K290" s="25" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L290" s="26">
         <v>475</v>
@@ -21392,7 +21395,7 @@
       <c r="AMI290"/>
       <c r="AMJ290"/>
     </row>
-    <row r="291" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:1024" s="22" customFormat="1">
       <c r="A291" s="22">
         <v>290</v>
       </c>
@@ -21424,7 +21427,7 @@
         <v>108</v>
       </c>
       <c r="K291" s="25" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L291" s="26">
         <v>108350</v>
@@ -21460,7 +21463,7 @@
       <c r="AMI291"/>
       <c r="AMJ291"/>
     </row>
-    <row r="292" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:1024" s="22" customFormat="1">
       <c r="A292" s="22">
         <v>291</v>
       </c>
@@ -21492,7 +21495,7 @@
         <v>121</v>
       </c>
       <c r="K292" s="25" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L292" s="26">
         <v>21255</v>
@@ -21528,7 +21531,7 @@
       <c r="AMI292"/>
       <c r="AMJ292"/>
     </row>
-    <row r="293" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:1024" s="22" customFormat="1">
       <c r="A293" s="22">
         <v>292</v>
       </c>
@@ -21560,7 +21563,7 @@
         <v>125</v>
       </c>
       <c r="K293" s="25" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L293" s="26">
         <v>23200</v>
@@ -21596,7 +21599,7 @@
       <c r="AMI293"/>
       <c r="AMJ293"/>
     </row>
-    <row r="294" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:1024" s="22" customFormat="1">
       <c r="A294" s="22">
         <v>293</v>
       </c>
@@ -21625,10 +21628,10 @@
         <v>12</v>
       </c>
       <c r="J294" s="24" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K294" s="25" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L294" s="26">
         <v>75000</v>
@@ -21664,7 +21667,7 @@
       <c r="AMI294"/>
       <c r="AMJ294"/>
     </row>
-    <row r="295" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:1024" s="22" customFormat="1">
       <c r="A295" s="22">
         <v>294</v>
       </c>
@@ -21693,16 +21696,16 @@
         <v>12</v>
       </c>
       <c r="J295" s="24" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K295" s="25" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L295" s="26">
         <v>473</v>
       </c>
       <c r="M295" s="27" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="N295" s="28"/>
       <c r="O295" s="28">
@@ -21732,7 +21735,7 @@
       <c r="AMI295"/>
       <c r="AMJ295"/>
     </row>
-    <row r="296" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:1024" s="22" customFormat="1">
       <c r="A296" s="22">
         <v>295</v>
       </c>
@@ -21764,7 +21767,7 @@
         <v>62</v>
       </c>
       <c r="K296" s="25" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L296" s="26">
         <v>83</v>
@@ -21800,7 +21803,7 @@
       <c r="AMI296"/>
       <c r="AMJ296"/>
     </row>
-    <row r="297" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:1024" s="22" customFormat="1">
       <c r="A297" s="22">
         <v>296</v>
       </c>
@@ -21829,10 +21832,10 @@
         <v>12</v>
       </c>
       <c r="J297" s="24" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K297" s="25" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L297" s="26">
         <v>239</v>
@@ -21868,7 +21871,7 @@
       <c r="AMI297"/>
       <c r="AMJ297"/>
     </row>
-    <row r="298" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:1024" s="22" customFormat="1">
       <c r="A298" s="22">
         <v>297</v>
       </c>
@@ -21897,10 +21900,10 @@
         <v>12</v>
       </c>
       <c r="J298" s="24" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K298" s="25" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L298" s="26">
         <v>10</v>
@@ -21936,7 +21939,7 @@
       <c r="AMI298"/>
       <c r="AMJ298"/>
     </row>
-    <row r="299" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:1024" s="22" customFormat="1">
       <c r="A299" s="22">
         <v>298</v>
       </c>
@@ -21965,10 +21968,10 @@
         <v>12</v>
       </c>
       <c r="J299" s="24" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K299" s="25" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L299" s="26">
         <v>26681</v>
@@ -22004,7 +22007,7 @@
       <c r="AMI299"/>
       <c r="AMJ299"/>
     </row>
-    <row r="300" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:1024" s="22" customFormat="1">
       <c r="A300" s="22">
         <v>299</v>
       </c>
@@ -22033,10 +22036,10 @@
         <v>12</v>
       </c>
       <c r="J300" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K300" s="25" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L300" s="26">
         <v>120</v>
@@ -22072,7 +22075,7 @@
       <c r="AMI300"/>
       <c r="AMJ300"/>
     </row>
-    <row r="301" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:1024" s="22" customFormat="1">
       <c r="A301" s="22">
         <v>300</v>
       </c>
@@ -22101,16 +22104,16 @@
         <v>12</v>
       </c>
       <c r="J301" s="24" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K301" s="25" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L301" s="26">
         <v>21</v>
       </c>
       <c r="M301" s="27" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N301" s="28"/>
       <c r="O301" s="28">
@@ -22140,7 +22143,7 @@
       <c r="AMI301"/>
       <c r="AMJ301"/>
     </row>
-    <row r="302" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:1024" s="22" customFormat="1">
       <c r="A302" s="22">
         <v>301</v>
       </c>
@@ -22169,10 +22172,10 @@
         <v>13</v>
       </c>
       <c r="J302" s="24" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K302" s="25" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L302" s="26">
         <v>20816</v>
@@ -22208,7 +22211,7 @@
       <c r="AMI302"/>
       <c r="AMJ302"/>
     </row>
-    <row r="303" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:1024" s="22" customFormat="1">
       <c r="A303" s="22">
         <v>302</v>
       </c>
@@ -22237,10 +22240,10 @@
         <v>13</v>
       </c>
       <c r="J303" s="24" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K303" s="25" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L303" s="26">
         <v>6</v>
@@ -22276,7 +22279,7 @@
       <c r="AMI303"/>
       <c r="AMJ303"/>
     </row>
-    <row r="304" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:1024" s="22" customFormat="1">
       <c r="A304" s="22">
         <v>303</v>
       </c>
@@ -22305,10 +22308,10 @@
         <v>13</v>
       </c>
       <c r="J304" s="24" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K304" s="25" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L304" s="26">
         <v>515</v>
@@ -22344,7 +22347,7 @@
       <c r="AMI304"/>
       <c r="AMJ304"/>
     </row>
-    <row r="305" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:1024" s="22" customFormat="1">
       <c r="A305" s="22">
         <v>304</v>
       </c>
@@ -22373,10 +22376,10 @@
         <v>13</v>
       </c>
       <c r="J305" s="24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K305" s="25" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L305" s="26">
         <v>1052</v>
@@ -22412,7 +22415,7 @@
       <c r="AMI305"/>
       <c r="AMJ305"/>
     </row>
-    <row r="306" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:1024" s="22" customFormat="1">
       <c r="A306" s="22">
         <v>305</v>
       </c>
@@ -22444,7 +22447,7 @@
         <v>42</v>
       </c>
       <c r="K306" s="25" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L306" s="26">
         <v>771</v>
@@ -22480,7 +22483,7 @@
       <c r="AMI306"/>
       <c r="AMJ306"/>
     </row>
-    <row r="307" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:1024" s="22" customFormat="1">
       <c r="A307" s="22">
         <v>306</v>
       </c>
@@ -22509,10 +22512,10 @@
         <v>13</v>
       </c>
       <c r="J307" s="24" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K307" s="25" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L307" s="26">
         <v>7</v>
@@ -22548,7 +22551,7 @@
       <c r="AMI307"/>
       <c r="AMJ307"/>
     </row>
-    <row r="308" spans="1:1024" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:1024" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A308" s="22">
         <v>307</v>
       </c>
@@ -22577,10 +22580,10 @@
         <v>13</v>
       </c>
       <c r="J308" s="24" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K308" s="25" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L308" s="26">
         <v>3</v>
@@ -22616,7 +22619,7 @@
       <c r="AMI308"/>
       <c r="AMJ308"/>
     </row>
-    <row r="309" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:1024" s="22" customFormat="1">
       <c r="A309" s="22">
         <v>308</v>
       </c>
@@ -22648,13 +22651,13 @@
         <v>46</v>
       </c>
       <c r="K309" s="25" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L309" s="26">
         <v>3043</v>
       </c>
       <c r="M309" s="27" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="N309" s="28"/>
       <c r="O309" s="28">
@@ -22684,7 +22687,7 @@
       <c r="AMI309"/>
       <c r="AMJ309"/>
     </row>
-    <row r="310" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:1024" s="22" customFormat="1">
       <c r="A310" s="22">
         <v>309</v>
       </c>
@@ -22716,13 +22719,13 @@
         <v>46</v>
       </c>
       <c r="K310" s="25" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L310" s="26">
         <v>15182</v>
       </c>
       <c r="M310" s="27" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="N310" s="28">
         <v>10</v>
@@ -22752,7 +22755,7 @@
       <c r="AMI310"/>
       <c r="AMJ310"/>
     </row>
-    <row r="311" spans="1:1024" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:1024" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A311" s="22">
         <v>310</v>
       </c>
@@ -22784,7 +22787,7 @@
         <v>46</v>
       </c>
       <c r="K311" s="25" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L311" s="26">
         <v>1322</v>
@@ -22820,7 +22823,7 @@
       <c r="AMI311"/>
       <c r="AMJ311"/>
     </row>
-    <row r="312" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:1024" s="22" customFormat="1">
       <c r="A312" s="22">
         <v>311</v>
       </c>
@@ -22852,13 +22855,13 @@
         <v>46</v>
       </c>
       <c r="K312" s="25" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L312" s="26">
         <v>264</v>
       </c>
       <c r="M312" s="27" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="N312" s="28">
         <v>8</v>
@@ -22888,7 +22891,7 @@
       <c r="AMI312"/>
       <c r="AMJ312"/>
     </row>
-    <row r="313" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:1024" s="22" customFormat="1">
       <c r="A313" s="22">
         <v>312</v>
       </c>
@@ -22920,13 +22923,13 @@
         <v>46</v>
       </c>
       <c r="K313" s="25" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L313" s="26">
         <v>260</v>
       </c>
       <c r="M313" s="27" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="N313" s="28"/>
       <c r="O313" s="28">
@@ -22956,7 +22959,7 @@
       <c r="AMI313"/>
       <c r="AMJ313"/>
     </row>
-    <row r="314" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:1024" s="22" customFormat="1">
       <c r="A314" s="22">
         <v>313</v>
       </c>
@@ -22988,13 +22991,13 @@
         <v>46</v>
       </c>
       <c r="K314" s="25" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L314" s="26">
         <v>229</v>
       </c>
       <c r="M314" s="27" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="N314" s="28">
         <v>9</v>
@@ -23024,7 +23027,7 @@
       <c r="AMI314"/>
       <c r="AMJ314"/>
     </row>
-    <row r="315" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:1024" s="22" customFormat="1">
       <c r="A315" s="22">
         <v>314</v>
       </c>
@@ -23056,7 +23059,7 @@
         <v>52</v>
       </c>
       <c r="K315" s="25" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L315" s="26">
         <v>600</v>
@@ -23092,7 +23095,7 @@
       <c r="AMI315"/>
       <c r="AMJ315"/>
     </row>
-    <row r="316" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:1024" s="22" customFormat="1">
       <c r="A316" s="22">
         <v>315</v>
       </c>
@@ -23121,10 +23124,10 @@
         <v>13</v>
       </c>
       <c r="J316" s="24" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K316" s="25" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L316" s="26">
         <v>2857</v>
@@ -23160,7 +23163,7 @@
       <c r="AMI316"/>
       <c r="AMJ316"/>
     </row>
-    <row r="317" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:1024" s="22" customFormat="1">
       <c r="A317" s="22">
         <v>316</v>
       </c>
@@ -23189,10 +23192,10 @@
         <v>13</v>
       </c>
       <c r="J317" s="24" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K317" s="25" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L317" s="26">
         <v>200</v>

--- a/Unverified multiformat sources/Imports_1761_Nantes Hasna à faire corriger.xlsx
+++ b/Unverified multiformat sources/Imports_1761_Nantes Hasna à faire corriger.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guillaumedaudin/Documents/Recherche/Commerce International Français XVIIIe.xls/Balance du commerce/Retranscriptions_Commerce_France/toflit18_data_GIT/Unverified multiformat sources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61704FE2-3DD8-A245-A83F-C40206887B94}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86697F6F-7041-3D48-B025-7E4B8EF85A60}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="29360" windowHeight="27800" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Entrées" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017" iterateDelta="1E-4"/>
+  <calcPr calcId="179021" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3185" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3185" uniqueCount="311">
   <si>
     <t>numrodeligne</t>
   </si>
@@ -955,6 +955,9 @@
   </si>
   <si>
     <t>À la place du prix «Pour curiosité»</t>
+  </si>
+  <si>
+    <t>prix au millier</t>
   </si>
 </sst>
 </file>
@@ -1624,9 +1627,9 @@
   <dimension ref="A1:AMJ317"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="R1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A266" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="N1" sqref="N1"/>
-      <selection pane="bottomLeft" activeCell="Y96" sqref="Y96"/>
+      <selection pane="bottomLeft" activeCell="X280" sqref="X280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -20618,13 +20621,13 @@
         <v>64</v>
       </c>
       <c r="N279" s="28">
-        <v>15</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="O279" s="28"/>
       <c r="P279" s="29"/>
       <c r="Q279" s="30">
         <f t="shared" si="8"/>
-        <v>15</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="R279" s="29"/>
       <c r="S279" s="29"/>
@@ -20632,11 +20635,11 @@
       <c r="U279" s="32"/>
       <c r="V279" s="33">
         <f t="shared" si="9"/>
-        <v>3600000</v>
+        <v>3600</v>
       </c>
       <c r="W279" s="34"/>
       <c r="X279" s="23" t="s">
-        <v>33</v>
+        <v>310</v>
       </c>
       <c r="Y279" s="22">
         <v>1</v>
